--- a/Outputs/5. Budget constrained/Output Files/1000000/Output_5_29.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1000000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288003.900496779</v>
+        <v>2261228.698571282</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2306796.636929641</v>
+        <v>2306796.63692964</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.8368342205793</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55.32041365667381</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -713,10 +713,10 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.90229796805201</v>
       </c>
       <c r="S3" t="n">
-        <v>32.22343729894627</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>77.14804664098561</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.8776309323906</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>56.13661332322157</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.6619263342219</v>
+        <v>144.425617628566</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.884372849250084</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>349.3152881935925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>108.4249867772598</v>
       </c>
     </row>
     <row r="9">
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>378.8917324803267</v>
       </c>
       <c r="C11" t="n">
-        <v>361.4307825878537</v>
+        <v>361.4307825878536</v>
       </c>
       <c r="D11" t="n">
-        <v>350.8409324375291</v>
+        <v>350.840932437529</v>
       </c>
       <c r="E11" t="n">
         <v>378.0882608891079</v>
       </c>
       <c r="F11" t="n">
-        <v>403.0339365585576</v>
+        <v>403.0339365585575</v>
       </c>
       <c r="G11" t="n">
         <v>408.1681461621138</v>
       </c>
       <c r="H11" t="n">
-        <v>301.913559910459</v>
+        <v>301.9135599104589</v>
       </c>
       <c r="I11" t="n">
-        <v>79.70036153343979</v>
+        <v>79.7003615334397</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.1505229572385</v>
+        <v>130.1505229572384</v>
       </c>
       <c r="T11" t="n">
-        <v>204.840899682383</v>
+        <v>204.8408996823829</v>
       </c>
       <c r="U11" t="n">
-        <v>247.2401451510932</v>
+        <v>247.2401451510931</v>
       </c>
       <c r="V11" t="n">
         <v>323.910149286981</v>
@@ -1433,7 +1433,7 @@
         <v>345.3988595342591</v>
       </c>
       <c r="X11" t="n">
-        <v>365.8889914953152</v>
+        <v>365.8889914953151</v>
       </c>
       <c r="Y11" t="n">
         <v>382.3958294728997</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>175.9898709987833</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>144.7733638350585</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>141.5789388397774</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>80.35440008135862</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.4362516487462</v>
       </c>
       <c r="T13" t="n">
         <v>217.7931143158715</v>
@@ -1585,13 +1585,13 @@
         <v>282.3963623104103</v>
       </c>
       <c r="V13" t="n">
-        <v>248.2955341406741</v>
+        <v>22.70856804345691</v>
       </c>
       <c r="W13" t="n">
         <v>282.6808891534371</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>221.8675462058832</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.8917324803267</v>
+        <v>378.8917324803266</v>
       </c>
       <c r="C14" t="n">
-        <v>361.4307825878537</v>
+        <v>361.4307825878536</v>
       </c>
       <c r="D14" t="n">
-        <v>350.8409324375282</v>
+        <v>350.840932437529</v>
       </c>
       <c r="E14" t="n">
-        <v>378.0882608891079</v>
+        <v>378.0882608891078</v>
       </c>
       <c r="F14" t="n">
-        <v>403.0339365585576</v>
+        <v>403.0339365585575</v>
       </c>
       <c r="G14" t="n">
-        <v>408.1681461621138</v>
+        <v>408.1681461621137</v>
       </c>
       <c r="H14" t="n">
-        <v>301.913559910459</v>
+        <v>301.9135599104588</v>
       </c>
       <c r="I14" t="n">
-        <v>79.70036153343979</v>
+        <v>79.70036153343965</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.1505229572385</v>
+        <v>130.1505229572384</v>
       </c>
       <c r="T14" t="n">
-        <v>204.840899682383</v>
+        <v>204.8408996823829</v>
       </c>
       <c r="U14" t="n">
-        <v>247.2401451510932</v>
+        <v>247.2401451510931</v>
       </c>
       <c r="V14" t="n">
-        <v>323.910149286981</v>
+        <v>323.9101492869809</v>
       </c>
       <c r="W14" t="n">
-        <v>345.3988595342591</v>
+        <v>345.398859534259</v>
       </c>
       <c r="X14" t="n">
-        <v>365.8889914953152</v>
+        <v>365.8889914953151</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.3958294728997</v>
+        <v>382.3958294728996</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.598475085799498</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>162.6719760216492</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>107.0447505214612</v>
       </c>
       <c r="S16" t="n">
-        <v>194.4362516487463</v>
+        <v>194.4362516487462</v>
       </c>
       <c r="T16" t="n">
-        <v>217.7931143158715</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.3963623104103</v>
+        <v>282.3963623104102</v>
       </c>
       <c r="V16" t="n">
-        <v>248.2955341406741</v>
+        <v>94.70425866771028</v>
       </c>
       <c r="W16" t="n">
-        <v>282.6808891534371</v>
+        <v>282.680889153437</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>221.8675462058831</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.7425441689408</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>403.0339365585576</v>
       </c>
       <c r="G17" t="n">
-        <v>408.168146162112</v>
+        <v>408.1681461621138</v>
       </c>
       <c r="H17" t="n">
         <v>301.913559910459</v>
@@ -2005,7 +2005,7 @@
         <v>163.404711915474</v>
       </c>
       <c r="D19" t="n">
-        <v>144.7733638350585</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>162.6719760216492</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.254131667238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>107.1941306505319</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>61.9743272130284</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>95.25046482643337</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.7931143158715</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.3963623104103</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>248.2955341406741</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.8675462058833</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>214.7425441689409</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>368.4949092938859</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>367.4661349463568</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2096,10 @@
         <v>397.5460202193627</v>
       </c>
       <c r="H20" t="n">
-        <v>305.7556690936128</v>
+        <v>291.5167367240194</v>
       </c>
       <c r="I20" t="n">
-        <v>83.54247071659366</v>
+        <v>69.07823559068864</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5283970144874</v>
+        <v>133.9926321403923</v>
       </c>
       <c r="T20" t="n">
-        <v>194.2187737396319</v>
+        <v>208.6830088655369</v>
       </c>
       <c r="U20" t="n">
         <v>251.0822543342471</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3677450560323</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.049571218215807</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9568128970263</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.0498500788981</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.57200470778078</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>96.42262457871021</v>
+        <v>96.42262457871018</v>
       </c>
       <c r="S22" t="n">
-        <v>125.9369408152648</v>
+        <v>183.8141257059951</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.7742363676592</v>
       </c>
       <c r="V22" t="n">
         <v>237.673408197923</v>
@@ -2302,7 +2302,7 @@
         <v>272.058763210686</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>211.2454202631321</v>
       </c>
       <c r="Y22" t="n">
         <v>204.1204182261898</v>
@@ -2324,19 +2324,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>367.6914377026684</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>392.4118106158064</v>
       </c>
       <c r="G23" t="n">
         <v>397.5460202193627</v>
       </c>
       <c r="H23" t="n">
-        <v>305.7556690936128</v>
+        <v>291.2914339677078</v>
       </c>
       <c r="I23" t="n">
-        <v>83.54247071659366</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>133.9926321403923</v>
       </c>
       <c r="T23" t="n">
-        <v>194.2187737396319</v>
+        <v>208.6830088655369</v>
       </c>
       <c r="U23" t="n">
-        <v>236.6180192083421</v>
+        <v>251.0822543342471</v>
       </c>
       <c r="V23" t="n">
-        <v>313.5133261005411</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I24" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>165.3677450560323</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>107.690019225939</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>96.42262457871018</v>
       </c>
       <c r="S25" t="n">
-        <v>183.8141257059952</v>
+        <v>183.8141257059951</v>
       </c>
       <c r="T25" t="n">
         <v>207.1709883731204</v>
@@ -2536,13 +2536,13 @@
         <v>237.673408197923</v>
       </c>
       <c r="W25" t="n">
-        <v>272.058763210686</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.2454202631322</v>
+        <v>211.2454202631321</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.42162564999491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>372.1117157207294</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>360.7518837374541</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>344.0609156779318</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>371.3082441295107</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2539197989603</v>
       </c>
       <c r="G26" t="n">
-        <v>412.0102553452677</v>
+        <v>401.3881294025166</v>
       </c>
       <c r="H26" t="n">
-        <v>305.7556690936128</v>
+        <v>295.1335431508617</v>
       </c>
       <c r="I26" t="n">
-        <v>72.9203447738425</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.3705061976412</v>
+        <v>133.9926321403923</v>
       </c>
       <c r="T26" t="n">
-        <v>208.6830088655369</v>
+        <v>204.1620008319836</v>
       </c>
       <c r="U26" t="n">
-        <v>240.4601283914959</v>
+        <v>240.460128391496</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I27" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.2098542391861</v>
+        <v>169.2098542391862</v>
       </c>
       <c r="C28" t="n">
-        <v>156.6246951558767</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.9933470754612</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.811836703818</v>
+        <v>50.38551841756122</v>
       </c>
       <c r="F28" t="n">
-        <v>134.7989220801801</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.8919592620519</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>100.2647337618641</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>187.6562348891491</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>211.0130975562743</v>
       </c>
       <c r="U28" t="n">
-        <v>275.616345550813</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.5155173810768</v>
+        <v>241.5155173810769</v>
       </c>
       <c r="W28" t="n">
-        <v>43.57088063677465</v>
+        <v>275.9008723938399</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>215.0875294462861</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>372.1117157207295</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>344.0609156779319</v>
       </c>
       <c r="E29" t="n">
-        <v>371.3082441295107</v>
+        <v>377.4093620387084</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>401.3881294025166</v>
+        <v>401.3881294025167</v>
       </c>
       <c r="H29" t="n">
         <v>305.7556690936128</v>
       </c>
       <c r="I29" t="n">
-        <v>72.92034477384256</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>129.4716241068377</v>
+        <v>133.9926321403923</v>
       </c>
       <c r="T29" t="n">
-        <v>198.0608829227858</v>
+        <v>208.6830088655369</v>
       </c>
       <c r="U29" t="n">
-        <v>240.460128391496</v>
+        <v>240.4601283914961</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>359.108974735718</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I30" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.2098542391862</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.6246951558767</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>137.9933470754613</v>
       </c>
       <c r="E31" t="n">
-        <v>135.8118367038181</v>
+        <v>135.8118367038182</v>
       </c>
       <c r="F31" t="n">
-        <v>134.7989220801801</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.891959262052</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>187.6562348891491</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>211.0130975562744</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>113.9932676238271</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.515517381077</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.0839812701703</v>
+        <v>215.0875294462861</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.9625274093437</v>
+        <v>207.9625274093438</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0102553452677</v>
+        <v>354.37861759796</v>
       </c>
       <c r="H32" t="n">
         <v>305.7556690936128</v>
       </c>
       <c r="I32" t="n">
-        <v>25.91083296928511</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I33" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>110.7721196154085</v>
       </c>
       <c r="C34" t="n">
-        <v>98.18696053209905</v>
+        <v>98.18696053209906</v>
       </c>
       <c r="D34" t="n">
-        <v>79.55561245168357</v>
+        <v>79.55561245168359</v>
       </c>
       <c r="E34" t="n">
-        <v>77.37410208004039</v>
+        <v>77.3741020800404</v>
       </c>
       <c r="F34" t="n">
-        <v>76.36118745640246</v>
+        <v>76.36118745640248</v>
       </c>
       <c r="G34" t="n">
-        <v>97.4542246382743</v>
+        <v>97.45422463827431</v>
       </c>
       <c r="H34" t="n">
-        <v>80.03638028386305</v>
+        <v>80.03638028386307</v>
       </c>
       <c r="I34" t="n">
         <v>41.97637926715699</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82699913808642</v>
+        <v>41.82699913808644</v>
       </c>
       <c r="S34" t="n">
         <v>129.2185002653714</v>
       </c>
       <c r="T34" t="n">
-        <v>152.5753629324966</v>
+        <v>152.5753629324967</v>
       </c>
       <c r="U34" t="n">
         <v>217.1786109270354</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0102553452677</v>
+        <v>354.37861759796</v>
       </c>
       <c r="H35" t="n">
         <v>305.7556690936128</v>
       </c>
       <c r="I35" t="n">
-        <v>83.54247071659366</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>133.9926321403923</v>
       </c>
       <c r="T35" t="n">
-        <v>151.0513711182284</v>
+        <v>208.6830088655369</v>
       </c>
       <c r="U35" t="n">
         <v>251.0822543342471</v>
@@ -3363,7 +3363,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I36" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>110.7721196154085</v>
       </c>
       <c r="C37" t="n">
-        <v>98.18696053209902</v>
+        <v>98.18696053209906</v>
       </c>
       <c r="D37" t="n">
-        <v>79.55561245168354</v>
+        <v>79.55561245168359</v>
       </c>
       <c r="E37" t="n">
-        <v>77.37410208004036</v>
+        <v>77.3741020800404</v>
       </c>
       <c r="F37" t="n">
-        <v>76.36118745640243</v>
+        <v>76.36118745640248</v>
       </c>
       <c r="G37" t="n">
-        <v>97.45422463827427</v>
+        <v>97.45422463827431</v>
       </c>
       <c r="H37" t="n">
-        <v>80.03638028386302</v>
+        <v>80.03638028386307</v>
       </c>
       <c r="I37" t="n">
-        <v>41.97637926715696</v>
+        <v>41.97637926715699</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82699913808639</v>
+        <v>41.82699913808644</v>
       </c>
       <c r="S37" t="n">
-        <v>129.2185002653713</v>
+        <v>129.2185002653714</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5753629324966</v>
+        <v>152.5753629324967</v>
       </c>
       <c r="U37" t="n">
         <v>217.1786109270354</v>
@@ -3487,7 +3487,7 @@
         <v>217.4631377700622</v>
       </c>
       <c r="X37" t="n">
-        <v>156.6497948225083</v>
+        <v>156.6497948225084</v>
       </c>
       <c r="Y37" t="n">
         <v>149.524792785566</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.0102553452677</v>
+        <v>354.37861759796</v>
       </c>
       <c r="H38" t="n">
         <v>305.7556690936128</v>
       </c>
       <c r="I38" t="n">
-        <v>25.91083296928511</v>
+        <v>83.54247071659364</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I39" t="n">
-        <v>28.74390853940646</v>
+        <v>28.74390853940645</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>97.45422463827431</v>
       </c>
       <c r="H40" t="n">
-        <v>80.03638028386307</v>
+        <v>80.03638028386305</v>
       </c>
       <c r="I40" t="n">
-        <v>41.976379267157</v>
+        <v>41.97637926715699</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.1022039161722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0102553452677</v>
+        <v>354.37861759796</v>
       </c>
       <c r="H41" t="n">
         <v>305.7556690936128</v>
       </c>
       <c r="I41" t="n">
-        <v>83.54247071659364</v>
+        <v>83.54247071659367</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9926321403923</v>
+        <v>133.9926321403924</v>
       </c>
       <c r="T41" t="n">
         <v>208.6830088655369</v>
@@ -3837,7 +3837,7 @@
         <v>95.22177558235086</v>
       </c>
       <c r="I42" t="n">
-        <v>28.74390853940645</v>
+        <v>28.74390853940647</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>110.7721196154085</v>
       </c>
       <c r="C43" t="n">
-        <v>98.18696053209908</v>
+        <v>98.18696053209902</v>
       </c>
       <c r="D43" t="n">
-        <v>79.5556124516836</v>
+        <v>79.55561245168354</v>
       </c>
       <c r="E43" t="n">
-        <v>77.37410208004042</v>
+        <v>77.37410208004036</v>
       </c>
       <c r="F43" t="n">
-        <v>76.36118745640249</v>
+        <v>76.36118745640243</v>
       </c>
       <c r="G43" t="n">
-        <v>97.45422463827433</v>
+        <v>97.45422463827427</v>
       </c>
       <c r="H43" t="n">
-        <v>80.03638028386308</v>
+        <v>80.03638028386302</v>
       </c>
       <c r="I43" t="n">
-        <v>41.97637926715701</v>
+        <v>41.97637926715696</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.82699913808645</v>
+        <v>41.82699913808641</v>
       </c>
       <c r="S43" t="n">
-        <v>129.2185002653714</v>
+        <v>129.2185002653713</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5753629324967</v>
+        <v>152.5753629324966</v>
       </c>
       <c r="U43" t="n">
         <v>217.1786109270354</v>
@@ -3961,7 +3961,7 @@
         <v>217.4631377700622</v>
       </c>
       <c r="X43" t="n">
-        <v>156.6497948225084</v>
+        <v>156.6497948225083</v>
       </c>
       <c r="Y43" t="n">
         <v>149.524792785566</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.0102553452677</v>
+        <v>354.3786175979591</v>
       </c>
       <c r="H44" t="n">
         <v>305.7556690936128</v>
@@ -4031,7 +4031,7 @@
         <v>208.6830088655369</v>
       </c>
       <c r="U44" t="n">
-        <v>193.450616586939</v>
+        <v>251.0822543342471</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.5063620977151</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="C2" t="n">
-        <v>256.5063620977151</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="D2" t="n">
-        <v>256.5063620977151</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="E2" t="n">
-        <v>256.5063620977151</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485117</v>
+        <v>92.30242843381534</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>76.93856842994526</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>473.5132653508255</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U2" t="n">
-        <v>473.5132653508255</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="V2" t="n">
-        <v>473.5132653508255</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="W2" t="n">
-        <v>473.5132653508255</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="X2" t="n">
-        <v>473.5132653508255</v>
+        <v>99.24792918301881</v>
       </c>
       <c r="Y2" t="n">
-        <v>473.5132653508255</v>
+        <v>99.24792918301881</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2188146370821</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7657853559551</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H3" t="n">
         <v>21.05936271613333</v>
@@ -4413,13 +4413,13 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>264.0974690247203</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4341920469246</v>
+        <v>524.7070826368703</v>
       </c>
       <c r="N3" t="n">
-        <v>659.4341920469246</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="O3" t="n">
         <v>785.3166962490202</v>
@@ -4431,28 +4431,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>957.10722876823</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.419209242074</v>
+        <v>784.618621360871</v>
       </c>
       <c r="T3" t="n">
-        <v>818.4341516571501</v>
+        <v>784.618621360871</v>
       </c>
       <c r="U3" t="n">
-        <v>818.4341516571501</v>
+        <v>556.3982926030758</v>
       </c>
       <c r="V3" t="n">
-        <v>818.4341516571501</v>
+        <v>556.3982926030758</v>
       </c>
       <c r="W3" t="n">
-        <v>818.4341516571501</v>
+        <v>302.1609358748741</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4341516571501</v>
+        <v>302.1609358748741</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4341516571501</v>
+        <v>302.1609358748741</v>
       </c>
     </row>
     <row r="4">
@@ -4507,19 +4507,19 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
         <v>21.05936271613333</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.8609869371771</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C5" t="n">
-        <v>292.8609869371771</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D5" t="n">
-        <v>292.8609869371771</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E5" t="n">
-        <v>292.8609869371771</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F5" t="n">
-        <v>285.9154861879737</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G5" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
         <v>22.09252109618844</v>
@@ -4574,10 +4574,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
         <v>989.7620250901066</v>
@@ -4595,22 +4595,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U5" t="n">
-        <v>850.7529338106226</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V5" t="n">
-        <v>850.7529338106226</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W5" t="n">
-        <v>850.7529338106226</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="X5" t="n">
-        <v>850.7529338106226</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="Y5" t="n">
-        <v>571.8069603738999</v>
+        <v>600.9532674636399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.0098520841565</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="C6" t="n">
-        <v>269.0098520841565</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D6" t="n">
-        <v>269.0098520841565</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2479876888894</v>
+        <v>282.0379868638977</v>
       </c>
       <c r="M6" t="n">
-        <v>541.6429362542212</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N6" t="n">
-        <v>815.0378848195531</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O6" t="n">
-        <v>1081.534698402837</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T6" t="n">
-        <v>902.7461548375312</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="U6" t="n">
-        <v>674.5275424716789</v>
+        <v>806.3008579684609</v>
       </c>
       <c r="V6" t="n">
-        <v>439.3754342399362</v>
+        <v>571.1487497367182</v>
       </c>
       <c r="W6" t="n">
-        <v>439.3754342399362</v>
+        <v>316.9113930085165</v>
       </c>
       <c r="X6" t="n">
-        <v>439.3754342399362</v>
+        <v>316.9113930085165</v>
       </c>
       <c r="Y6" t="n">
-        <v>269.0098520841565</v>
+        <v>171.0269307574397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>191.0287040240954</v>
       </c>
       <c r="C7" t="n">
         <v>22.09252109618844</v>
@@ -4762,13 +4762,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>191.0287040240954</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>785.9213106858008</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>427.6556120790503</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5027,13 +5027,13 @@
         <v>1300.966343314852</v>
       </c>
       <c r="F11" t="n">
-        <v>893.8613568920669</v>
+        <v>893.861356892067</v>
       </c>
       <c r="G11" t="n">
         <v>481.5703001626589</v>
       </c>
       <c r="H11" t="n">
-        <v>176.6071083339128</v>
+        <v>176.6071083339127</v>
       </c>
       <c r="I11" t="n">
         <v>96.10169264356952</v>
@@ -5072,7 +5072,7 @@
         <v>4466.709457795019</v>
       </c>
       <c r="U11" t="n">
-        <v>4216.97193744038</v>
+        <v>4216.971937440379</v>
       </c>
       <c r="V11" t="n">
         <v>3889.789968463631</v>
@@ -5081,7 +5081,7 @@
         <v>3540.902231560339</v>
       </c>
       <c r="X11" t="n">
-        <v>3171.317391666082</v>
+        <v>3171.317391666081</v>
       </c>
       <c r="Y11" t="n">
         <v>2785.058978057092</v>
@@ -5121,19 +5121,19 @@
         <v>135.303796518847</v>
       </c>
       <c r="K12" t="n">
-        <v>280.4612607858581</v>
+        <v>542.281845428311</v>
       </c>
       <c r="L12" t="n">
-        <v>521.9659261917225</v>
+        <v>783.7865108341753</v>
       </c>
       <c r="M12" t="n">
-        <v>1284.195360965971</v>
+        <v>1084.967932495924</v>
       </c>
       <c r="N12" t="n">
-        <v>2065.921001682096</v>
+        <v>1408.529375111515</v>
       </c>
       <c r="O12" t="n">
-        <v>2339.696713617891</v>
+        <v>2072.228783131273</v>
       </c>
       <c r="P12" t="n">
         <v>2540.09279269621</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.5125035084126</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="C13" t="n">
-        <v>466.5125035084126</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="D13" t="n">
-        <v>320.276782462899</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="E13" t="n">
-        <v>320.276782462899</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="F13" t="n">
-        <v>177.2677533318106</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="G13" t="n">
-        <v>177.2677533318106</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="H13" t="n">
         <v>96.10169264356952</v>
@@ -5197,25 +5197,25 @@
         <v>96.10169264356952</v>
       </c>
       <c r="J13" t="n">
-        <v>110.8520449162075</v>
+        <v>110.8520449162076</v>
       </c>
       <c r="K13" t="n">
-        <v>262.4813016533815</v>
+        <v>262.4813016533816</v>
       </c>
       <c r="L13" t="n">
-        <v>510.9772576523811</v>
+        <v>510.9772576523814</v>
       </c>
       <c r="M13" t="n">
-        <v>783.163756959289</v>
+        <v>783.1637569592892</v>
       </c>
       <c r="N13" t="n">
         <v>1054.403329302422</v>
       </c>
       <c r="O13" t="n">
-        <v>1289.211046737989</v>
+        <v>1289.21104673799</v>
       </c>
       <c r="P13" t="n">
-        <v>1467.157906883672</v>
+        <v>1467.157906883673</v>
       </c>
       <c r="Q13" t="n">
         <v>1508.094220599719</v>
@@ -5224,25 +5224,25 @@
         <v>1508.094220599719</v>
       </c>
       <c r="S13" t="n">
-        <v>1508.094220599719</v>
+        <v>1311.693966409067</v>
       </c>
       <c r="T13" t="n">
-        <v>1288.101175836212</v>
+        <v>1091.70092164556</v>
       </c>
       <c r="U13" t="n">
-        <v>1002.852325017616</v>
+        <v>806.452070826964</v>
       </c>
       <c r="V13" t="n">
-        <v>752.0487551785511</v>
+        <v>783.5141233083207</v>
       </c>
       <c r="W13" t="n">
-        <v>466.5125035084126</v>
+        <v>497.9778716381823</v>
       </c>
       <c r="X13" t="n">
-        <v>466.5125035084126</v>
+        <v>273.869239106987</v>
       </c>
       <c r="Y13" t="n">
-        <v>466.5125035084126</v>
+        <v>273.869239106987</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>2037.258457786202</v>
       </c>
       <c r="D14" t="n">
-        <v>1682.873677546275</v>
+        <v>1682.873677546274</v>
       </c>
       <c r="E14" t="n">
-        <v>1300.966343314853</v>
+        <v>1300.966343314852</v>
       </c>
       <c r="F14" t="n">
-        <v>893.8613568920672</v>
+        <v>893.8613568920667</v>
       </c>
       <c r="G14" t="n">
-        <v>481.5703001626592</v>
+        <v>481.5703001626589</v>
       </c>
       <c r="H14" t="n">
-        <v>176.6071083339127</v>
+        <v>176.6071083339126</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="J14" t="n">
-        <v>360.9227516616374</v>
+        <v>360.9227516616371</v>
       </c>
       <c r="K14" t="n">
         <v>878.5656755996747</v>
@@ -5294,19 +5294,19 @@
         <v>3848.20868190326</v>
       </c>
       <c r="P14" t="n">
-        <v>4406.597158308657</v>
+        <v>4406.597158308656</v>
       </c>
       <c r="Q14" t="n">
-        <v>4748.701889668311</v>
+        <v>4748.70188966831</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.084632178476</v>
+        <v>4805.084632178475</v>
       </c>
       <c r="S14" t="n">
-        <v>4673.619457474194</v>
+        <v>4673.619457474193</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.709457795019</v>
+        <v>4466.709457795018</v>
       </c>
       <c r="U14" t="n">
         <v>4216.971937440379</v>
@@ -5346,37 +5346,37 @@
         <v>358.2709532681414</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3195553928194</v>
+        <v>221.3195553928193</v>
       </c>
       <c r="H15" t="n">
         <v>125.135943693475</v>
       </c>
       <c r="I15" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="J15" t="n">
-        <v>135.303796518847</v>
+        <v>260.1339215058517</v>
       </c>
       <c r="K15" t="n">
-        <v>280.4612607858581</v>
+        <v>667.1119704153157</v>
       </c>
       <c r="L15" t="n">
-        <v>521.9659261917225</v>
+        <v>908.6166358211799</v>
       </c>
       <c r="M15" t="n">
-        <v>1284.195360965971</v>
+        <v>1209.798057482928</v>
       </c>
       <c r="N15" t="n">
-        <v>2065.921001682096</v>
+        <v>1533.35950009852</v>
       </c>
       <c r="O15" t="n">
-        <v>2339.696713617891</v>
+        <v>2197.058908118278</v>
       </c>
       <c r="P15" t="n">
-        <v>2540.09279269621</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q15" t="n">
-        <v>2624.133068133588</v>
+        <v>2615.007290096655</v>
       </c>
       <c r="R15" t="n">
         <v>2624.133068133588</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.4168199381647</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="C16" t="n">
-        <v>260.4168199381647</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="D16" t="n">
-        <v>260.4168199381647</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="E16" t="n">
-        <v>260.4168199381647</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="F16" t="n">
-        <v>260.4168199381647</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="G16" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="J16" t="n">
-        <v>110.8520449162074</v>
+        <v>110.8520449162077</v>
       </c>
       <c r="K16" t="n">
-        <v>262.4813016533815</v>
+        <v>262.4813016533819</v>
       </c>
       <c r="L16" t="n">
-        <v>510.9772576523812</v>
+        <v>510.9772576523816</v>
       </c>
       <c r="M16" t="n">
-        <v>783.163756959289</v>
+        <v>783.1637569592897</v>
       </c>
       <c r="N16" t="n">
         <v>1054.403329302422</v>
       </c>
       <c r="O16" t="n">
-        <v>1289.211046737989</v>
+        <v>1289.21104673799</v>
       </c>
       <c r="P16" t="n">
-        <v>1467.157906883672</v>
+        <v>1467.157906883673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1508.094220599719</v>
+        <v>1508.09422059972</v>
       </c>
       <c r="R16" t="n">
-        <v>1508.094220599719</v>
+        <v>1399.968209971981</v>
       </c>
       <c r="S16" t="n">
-        <v>1311.693966409066</v>
+        <v>1203.567955781329</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.70092164556</v>
+        <v>1203.567955781329</v>
       </c>
       <c r="U16" t="n">
-        <v>806.4520708269636</v>
+        <v>918.3191049627326</v>
       </c>
       <c r="V16" t="n">
-        <v>555.6485009878987</v>
+        <v>822.6582376216109</v>
       </c>
       <c r="W16" t="n">
-        <v>270.1122493177602</v>
+        <v>537.1219859514725</v>
       </c>
       <c r="X16" t="n">
-        <v>270.1122493177602</v>
+        <v>313.0133534202773</v>
       </c>
       <c r="Y16" t="n">
-        <v>270.1122493177602</v>
+        <v>96.10169264356949</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2402.340056359791</v>
+        <v>2402.340056359792</v>
       </c>
       <c r="C17" t="n">
-        <v>2037.258457786201</v>
+        <v>2037.258457786203</v>
       </c>
       <c r="D17" t="n">
-        <v>1682.873677546273</v>
+        <v>1682.873677546275</v>
       </c>
       <c r="E17" t="n">
-        <v>1300.966343314851</v>
+        <v>1300.966343314852</v>
       </c>
       <c r="F17" t="n">
-        <v>893.8613568920653</v>
+        <v>893.8613568920669</v>
       </c>
       <c r="G17" t="n">
-        <v>481.5703001626592</v>
+        <v>481.5703001626589</v>
       </c>
       <c r="H17" t="n">
         <v>176.6071083339127</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J17" t="n">
-        <v>360.9227516616371</v>
+        <v>360.922751661637</v>
       </c>
       <c r="K17" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996746</v>
       </c>
       <c r="L17" t="n">
         <v>1573.024123405467</v>
@@ -5534,31 +5534,31 @@
         <v>4406.597158308656</v>
       </c>
       <c r="Q17" t="n">
-        <v>4748.70188966831</v>
+        <v>4748.701889668311</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.084632178475</v>
+        <v>4805.084632178476</v>
       </c>
       <c r="S17" t="n">
-        <v>4673.619457474193</v>
+        <v>4673.619457474194</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.709457795018</v>
+        <v>4466.709457795019</v>
       </c>
       <c r="U17" t="n">
-        <v>4216.971937440378</v>
+        <v>4216.97193744038</v>
       </c>
       <c r="V17" t="n">
-        <v>3889.78996846363</v>
+        <v>3889.789968463632</v>
       </c>
       <c r="W17" t="n">
-        <v>3540.902231560338</v>
+        <v>3540.90223156034</v>
       </c>
       <c r="X17" t="n">
-        <v>3171.31739166608</v>
+        <v>3171.317391666082</v>
       </c>
       <c r="Y17" t="n">
-        <v>2785.058978057091</v>
+        <v>2785.058978057092</v>
       </c>
     </row>
     <row r="18">
@@ -5583,37 +5583,37 @@
         <v>358.2709532681414</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3195553928193</v>
+        <v>221.3195553928194</v>
       </c>
       <c r="H18" t="n">
         <v>125.135943693475</v>
       </c>
       <c r="I18" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J18" t="n">
-        <v>217.5869663805122</v>
+        <v>260.1339215058517</v>
       </c>
       <c r="K18" t="n">
-        <v>624.5650152899763</v>
+        <v>405.291385772863</v>
       </c>
       <c r="L18" t="n">
-        <v>1233.201622546265</v>
+        <v>1013.927993029152</v>
       </c>
       <c r="M18" t="n">
-        <v>1534.383044208013</v>
+        <v>1417.955640076034</v>
       </c>
       <c r="N18" t="n">
-        <v>1857.944486823605</v>
+        <v>1741.517082691626</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.720198759401</v>
+        <v>2015.292794627421</v>
       </c>
       <c r="P18" t="n">
-        <v>2332.116277837719</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2624.133068133588</v>
+        <v>2615.007290096655</v>
       </c>
       <c r="R18" t="n">
         <v>2624.133068133588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.7060503101873</v>
+        <v>261.1569572046543</v>
       </c>
       <c r="C19" t="n">
-        <v>661.6507857491024</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="D19" t="n">
-        <v>515.4150647035888</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="E19" t="n">
-        <v>515.4150647035888</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="F19" t="n">
-        <v>515.4150647035888</v>
+        <v>96.10169264356949</v>
       </c>
       <c r="G19" t="n">
-        <v>351.0999374089935</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="H19" t="n">
-        <v>204.3785922905714</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="I19" t="n">
         <v>96.10169264356949</v>
@@ -5674,10 +5674,10 @@
         <v>110.8520449162075</v>
       </c>
       <c r="K19" t="n">
-        <v>262.4813016533816</v>
+        <v>262.4813016533815</v>
       </c>
       <c r="L19" t="n">
-        <v>510.9772576523812</v>
+        <v>510.9772576523811</v>
       </c>
       <c r="M19" t="n">
         <v>783.163756959289</v>
@@ -5695,28 +5695,28 @@
         <v>1508.094220599719</v>
       </c>
       <c r="R19" t="n">
-        <v>1445.493890081508</v>
+        <v>1508.094220599719</v>
       </c>
       <c r="S19" t="n">
-        <v>1445.493890081508</v>
+        <v>1411.881629865948</v>
       </c>
       <c r="T19" t="n">
-        <v>1445.493890081508</v>
+        <v>1191.888585102441</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.493890081508</v>
+        <v>906.6397342838447</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.493890081508</v>
+        <v>655.8361644447799</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.493890081508</v>
+        <v>655.8361644447799</v>
       </c>
       <c r="X19" t="n">
-        <v>1221.385257550313</v>
+        <v>655.8361644447799</v>
       </c>
       <c r="Y19" t="n">
-        <v>1004.473596773605</v>
+        <v>438.9245036680719</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2414.896146416532</v>
+        <v>2371.292709425215</v>
       </c>
       <c r="C20" t="n">
-        <v>2045.93362947612</v>
+        <v>2002.330192484804</v>
       </c>
       <c r="D20" t="n">
-        <v>1687.66793086937</v>
+        <v>1644.064493878053</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.879678271126</v>
+        <v>1272.886579790824</v>
       </c>
       <c r="F20" t="n">
-        <v>890.8937734815181</v>
+        <v>861.9006750012168</v>
       </c>
       <c r="G20" t="n">
-        <v>489.3321368963033</v>
+        <v>460.3390384160019</v>
       </c>
       <c r="H20" t="n">
-        <v>180.4880267007348</v>
+        <v>165.8776881897197</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J20" t="n">
-        <v>360.9227516616371</v>
+        <v>360.9227516616374</v>
       </c>
       <c r="K20" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996752</v>
       </c>
       <c r="L20" t="n">
         <v>1573.024123405467</v>
       </c>
       <c r="M20" t="n">
-        <v>2362.349499879999</v>
+        <v>2362.34949988</v>
       </c>
       <c r="N20" t="n">
-        <v>3149.814988614351</v>
+        <v>3149.814988614352</v>
       </c>
       <c r="O20" t="n">
         <v>3848.20868190326</v>
       </c>
       <c r="P20" t="n">
-        <v>4406.597158308656</v>
+        <v>4406.597158308657</v>
       </c>
       <c r="Q20" t="n">
-        <v>4748.70188966831</v>
+        <v>4748.701889668311</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.084632178475</v>
+        <v>4805.084632178476</v>
       </c>
       <c r="S20" t="n">
-        <v>4684.348877618387</v>
+        <v>4669.738539107372</v>
       </c>
       <c r="T20" t="n">
-        <v>4488.168298083405</v>
+        <v>4458.947621061376</v>
       </c>
       <c r="U20" t="n">
-        <v>4234.549859361943</v>
+        <v>4205.329182339914</v>
       </c>
       <c r="V20" t="n">
-        <v>3903.486972018372</v>
+        <v>3874.266294996343</v>
       </c>
       <c r="W20" t="n">
-        <v>3550.718316748258</v>
+        <v>3521.497639726229</v>
       </c>
       <c r="X20" t="n">
-        <v>3177.252558487178</v>
+        <v>3148.031881465149</v>
       </c>
       <c r="Y20" t="n">
-        <v>2787.113226511367</v>
+        <v>2757.892549489337</v>
       </c>
     </row>
     <row r="21">
@@ -5820,34 +5820,34 @@
         <v>358.2709532681414</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3195553928193</v>
+        <v>221.3195553928194</v>
       </c>
       <c r="H21" t="n">
         <v>125.135943693475</v>
       </c>
       <c r="I21" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J21" t="n">
-        <v>135.3037965188469</v>
+        <v>260.1339215058517</v>
       </c>
       <c r="K21" t="n">
-        <v>280.4612607858581</v>
+        <v>667.1119704153158</v>
       </c>
       <c r="L21" t="n">
-        <v>889.097868042147</v>
+        <v>908.6166358211801</v>
       </c>
       <c r="M21" t="n">
-        <v>1651.327302816395</v>
+        <v>1209.798057482928</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.888745431987</v>
+        <v>1533.35950009852</v>
       </c>
       <c r="O21" t="n">
-        <v>2339.696713617891</v>
+        <v>1816.442057805863</v>
       </c>
       <c r="P21" t="n">
-        <v>2540.09279269621</v>
+        <v>2332.116277837719</v>
       </c>
       <c r="Q21" t="n">
         <v>2624.133068133588</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>479.5144882836756</v>
+        <v>100.1921686215652</v>
       </c>
       <c r="C22" t="n">
-        <v>479.5144882836756</v>
+        <v>100.1921686215652</v>
       </c>
       <c r="D22" t="n">
-        <v>479.5144882836756</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="E22" t="n">
-        <v>479.5144882836756</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="F22" t="n">
-        <v>347.2348792967804</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="G22" t="n">
-        <v>193.6491721463782</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="H22" t="n">
-        <v>193.6491721463782</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J22" t="n">
         <v>121.3679495995311</v>
       </c>
       <c r="K22" t="n">
-        <v>283.5131110200288</v>
+        <v>283.5131110200289</v>
       </c>
       <c r="L22" t="n">
         <v>542.5249717023521</v>
       </c>
       <c r="M22" t="n">
-        <v>825.2273756925835</v>
+        <v>825.2273756925839</v>
       </c>
       <c r="N22" t="n">
         <v>1106.98285271904</v>
       </c>
       <c r="O22" t="n">
-        <v>1352.306474837931</v>
+        <v>1352.306474837932</v>
       </c>
       <c r="P22" t="n">
-        <v>1540.769239666937</v>
+        <v>1540.769239666938</v>
       </c>
       <c r="Q22" t="n">
         <v>1592.221458066308</v>
       </c>
       <c r="R22" t="n">
-        <v>1494.824867582762</v>
+        <v>1494.824867582763</v>
       </c>
       <c r="S22" t="n">
-        <v>1367.615836456232</v>
+        <v>1309.154033536303</v>
       </c>
       <c r="T22" t="n">
-        <v>1367.615836456232</v>
+        <v>1309.154033536303</v>
       </c>
       <c r="U22" t="n">
-        <v>1367.615836456232</v>
+        <v>1034.6346028619</v>
       </c>
       <c r="V22" t="n">
-        <v>1127.541686761361</v>
+        <v>794.5604531670278</v>
       </c>
       <c r="W22" t="n">
-        <v>852.7348552354151</v>
+        <v>519.7536216410823</v>
       </c>
       <c r="X22" t="n">
-        <v>852.7348552354151</v>
+        <v>306.3744092540801</v>
       </c>
       <c r="Y22" t="n">
-        <v>646.5526146029001</v>
+        <v>100.1921686215652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2414.896146416532</v>
+        <v>2371.292709425215</v>
       </c>
       <c r="C23" t="n">
-        <v>2045.933629476121</v>
+        <v>2002.330192484804</v>
       </c>
       <c r="D23" t="n">
-        <v>1687.66793086937</v>
+        <v>1644.064493878053</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.879678271126</v>
+        <v>1272.659001249095</v>
       </c>
       <c r="F23" t="n">
-        <v>890.8937734815182</v>
+        <v>876.283434970503</v>
       </c>
       <c r="G23" t="n">
-        <v>489.3321368963034</v>
+        <v>474.7217983852881</v>
       </c>
       <c r="H23" t="n">
         <v>180.4880267007348</v>
@@ -5987,22 +5987,22 @@
         <v>96.10169264356952</v>
       </c>
       <c r="J23" t="n">
-        <v>360.9227516616371</v>
+        <v>360.922751661637</v>
       </c>
       <c r="K23" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996749</v>
       </c>
       <c r="L23" t="n">
         <v>1573.024123405467</v>
       </c>
       <c r="M23" t="n">
-        <v>2362.349499879999</v>
+        <v>2362.34949988</v>
       </c>
       <c r="N23" t="n">
-        <v>3149.814988614351</v>
+        <v>3149.814988614352</v>
       </c>
       <c r="O23" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P23" t="n">
         <v>4406.597158308657</v>
@@ -6017,22 +6017,22 @@
         <v>4669.738539107372</v>
       </c>
       <c r="T23" t="n">
-        <v>4473.55795957239</v>
+        <v>4458.947621061376</v>
       </c>
       <c r="U23" t="n">
-        <v>4234.549859361944</v>
+        <v>4205.329182339914</v>
       </c>
       <c r="V23" t="n">
-        <v>3917.86973198766</v>
+        <v>3874.266294996343</v>
       </c>
       <c r="W23" t="n">
-        <v>3565.101076717546</v>
+        <v>3521.497639726229</v>
       </c>
       <c r="X23" t="n">
-        <v>3191.635318456466</v>
+        <v>3148.031881465149</v>
       </c>
       <c r="Y23" t="n">
-        <v>2801.495986480654</v>
+        <v>2757.892549489337</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>358.2709532681414</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3195553928194</v>
+        <v>221.3195553928193</v>
       </c>
       <c r="H24" t="n">
         <v>125.135943693475</v>
@@ -6066,22 +6066,22 @@
         <v>96.10169264356952</v>
       </c>
       <c r="J24" t="n">
-        <v>260.1339215058517</v>
+        <v>135.303796518847</v>
       </c>
       <c r="K24" t="n">
-        <v>667.1119704153158</v>
+        <v>280.4612607858581</v>
       </c>
       <c r="L24" t="n">
-        <v>1233.201622546265</v>
+        <v>521.9659261917225</v>
       </c>
       <c r="M24" t="n">
-        <v>1534.383044208013</v>
+        <v>823.1473478534708</v>
       </c>
       <c r="N24" t="n">
-        <v>1857.944486823605</v>
+        <v>1621.257741069181</v>
       </c>
       <c r="O24" t="n">
-        <v>2131.720198759401</v>
+        <v>1895.033453004976</v>
       </c>
       <c r="P24" t="n">
         <v>2332.116277837719</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.10169264356952</v>
+        <v>204.8794898414877</v>
       </c>
       <c r="C25" t="n">
-        <v>96.10169264356952</v>
+        <v>204.8794898414877</v>
       </c>
       <c r="D25" t="n">
         <v>96.10169264356952</v>
@@ -6148,13 +6148,13 @@
         <v>121.3679495995311</v>
       </c>
       <c r="K25" t="n">
-        <v>283.5131110200288</v>
+        <v>283.5131110200289</v>
       </c>
       <c r="L25" t="n">
-        <v>542.524971702352</v>
+        <v>542.5249717023521</v>
       </c>
       <c r="M25" t="n">
-        <v>825.2273756925835</v>
+        <v>825.2273756925836</v>
       </c>
       <c r="N25" t="n">
         <v>1106.98285271904</v>
@@ -6166,31 +6166,31 @@
         <v>1540.769239666938</v>
       </c>
       <c r="Q25" t="n">
-        <v>1592.221458066308</v>
+        <v>1592.221458066309</v>
       </c>
       <c r="R25" t="n">
-        <v>1592.221458066308</v>
+        <v>1494.824867582763</v>
       </c>
       <c r="S25" t="n">
-        <v>1406.550624019848</v>
+        <v>1309.154033536303</v>
       </c>
       <c r="T25" t="n">
-        <v>1197.286999400535</v>
+        <v>1099.89040891699</v>
       </c>
       <c r="U25" t="n">
-        <v>922.7675687261312</v>
+        <v>825.3709782425861</v>
       </c>
       <c r="V25" t="n">
-        <v>682.6934190312595</v>
+        <v>585.2968285477144</v>
       </c>
       <c r="W25" t="n">
-        <v>407.886587505314</v>
+        <v>585.2968285477144</v>
       </c>
       <c r="X25" t="n">
-        <v>194.5073751183119</v>
+        <v>371.9176161607123</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.10169264356952</v>
+        <v>371.9176161607123</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2403.480969857794</v>
+        <v>2386.588804350775</v>
       </c>
       <c r="C26" t="n">
-        <v>2039.08512769875</v>
+        <v>2017.626287410364</v>
       </c>
       <c r="D26" t="n">
-        <v>1691.548849236192</v>
+        <v>1659.360588803613</v>
       </c>
       <c r="E26" t="n">
-        <v>1305.760596637948</v>
+        <v>1284.301756349562</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7746918483404</v>
+        <v>884.0452717041472</v>
       </c>
       <c r="G26" t="n">
         <v>478.6027167521103</v>
       </c>
       <c r="H26" t="n">
-        <v>169.7586065565417</v>
+        <v>180.4880267007348</v>
       </c>
       <c r="I26" t="n">
         <v>96.10169264356952</v>
       </c>
       <c r="J26" t="n">
-        <v>360.9227516616374</v>
+        <v>360.922751661637</v>
       </c>
       <c r="K26" t="n">
-        <v>878.5656755996752</v>
+        <v>878.5656755996749</v>
       </c>
       <c r="L26" t="n">
         <v>1573.024123405467</v>
@@ -6251,25 +6251,25 @@
         <v>4805.084632178476</v>
       </c>
       <c r="S26" t="n">
-        <v>4680.467959251565</v>
+        <v>4669.738539107372</v>
       </c>
       <c r="T26" t="n">
-        <v>4469.677041205568</v>
+        <v>4463.514295842742</v>
       </c>
       <c r="U26" t="n">
-        <v>4226.7880226283</v>
+        <v>4220.625277265473</v>
       </c>
       <c r="V26" t="n">
-        <v>3895.725135284729</v>
+        <v>3889.562389921903</v>
       </c>
       <c r="W26" t="n">
-        <v>3542.956480014614</v>
+        <v>3536.793734651789</v>
       </c>
       <c r="X26" t="n">
-        <v>3169.490721753535</v>
+        <v>3163.327976390709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2779.351389777723</v>
+        <v>2773.188644414897</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>358.2709532681414</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3195553928194</v>
+        <v>221.3195553928193</v>
       </c>
       <c r="H27" t="n">
         <v>125.135943693475</v>
@@ -6306,22 +6306,22 @@
         <v>260.1339215058517</v>
       </c>
       <c r="K27" t="n">
-        <v>667.1119704153158</v>
+        <v>405.291385772863</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.075844509333</v>
+        <v>646.7960511787273</v>
       </c>
       <c r="M27" t="n">
-        <v>1525.257266171081</v>
+        <v>947.9774728404757</v>
       </c>
       <c r="N27" t="n">
-        <v>1848.818708786673</v>
+        <v>1746.087866056186</v>
       </c>
       <c r="O27" t="n">
-        <v>2122.594420722468</v>
+        <v>2330.570935580959</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.990499800787</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q27" t="n">
         <v>2615.007290096655</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>824.5065010045676</v>
+        <v>146.9961556916112</v>
       </c>
       <c r="C28" t="n">
-        <v>666.2997382208537</v>
+        <v>146.9961556916112</v>
       </c>
       <c r="D28" t="n">
-        <v>526.912518952711</v>
+        <v>146.9961556916112</v>
       </c>
       <c r="E28" t="n">
-        <v>389.728845514511</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="F28" t="n">
-        <v>253.5683181607937</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="G28" t="n">
         <v>96.10169264356952</v>
@@ -6385,13 +6385,13 @@
         <v>117.5642615082087</v>
       </c>
       <c r="K28" t="n">
-        <v>275.9057348373842</v>
+        <v>275.905734837384</v>
       </c>
       <c r="L28" t="n">
-        <v>531.1139074283851</v>
+        <v>531.1139074283849</v>
       </c>
       <c r="M28" t="n">
-        <v>810.0126233272942</v>
+        <v>810.012623327294</v>
       </c>
       <c r="N28" t="n">
         <v>1087.964412262428</v>
@@ -6403,31 +6403,31 @@
         <v>1514.143423027681</v>
       </c>
       <c r="Q28" t="n">
-        <v>1561.79195333573</v>
+        <v>1561.791953335729</v>
       </c>
       <c r="R28" t="n">
-        <v>1561.79195333573</v>
+        <v>1460.514444485361</v>
       </c>
       <c r="S28" t="n">
-        <v>1561.79195333573</v>
+        <v>1270.962692072079</v>
       </c>
       <c r="T28" t="n">
-        <v>1561.79195333573</v>
+        <v>1057.818149085944</v>
       </c>
       <c r="U28" t="n">
-        <v>1283.391604294505</v>
+        <v>1057.818149085944</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.436536232811</v>
+        <v>813.8630810242498</v>
       </c>
       <c r="W28" t="n">
-        <v>995.4255456906142</v>
+        <v>535.1753311314822</v>
       </c>
       <c r="X28" t="n">
-        <v>995.4255456906142</v>
+        <v>317.9152003776579</v>
       </c>
       <c r="Y28" t="n">
-        <v>995.4255456906142</v>
+        <v>317.9152003776579</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.318224494968</v>
+        <v>2403.480969857794</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.355707554557</v>
+        <v>2034.518452917383</v>
       </c>
       <c r="D29" t="n">
-        <v>1670.090008947806</v>
+        <v>1686.982174454825</v>
       </c>
       <c r="E29" t="n">
-        <v>1295.031176493755</v>
+        <v>1305.760596637948</v>
       </c>
       <c r="F29" t="n">
-        <v>884.0452717041474</v>
+        <v>894.7746918483404</v>
       </c>
       <c r="G29" t="n">
-        <v>478.6027167521103</v>
+        <v>489.3321368963034</v>
       </c>
       <c r="H29" t="n">
-        <v>169.7586065565418</v>
+        <v>180.4880267007348</v>
       </c>
       <c r="I29" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J29" t="n">
         <v>360.9227516616371</v>
       </c>
       <c r="K29" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996748</v>
       </c>
       <c r="L29" t="n">
         <v>1573.024123405467</v>
       </c>
       <c r="M29" t="n">
-        <v>2362.349499879999</v>
+        <v>2362.34949988</v>
       </c>
       <c r="N29" t="n">
-        <v>3149.814988614351</v>
+        <v>3149.814988614352</v>
       </c>
       <c r="O29" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P29" t="n">
-        <v>4406.597158308656</v>
+        <v>4406.597158308657</v>
       </c>
       <c r="Q29" t="n">
-        <v>4748.70188966831</v>
+        <v>4748.701889668311</v>
       </c>
       <c r="R29" t="n">
-        <v>4805.084632178475</v>
+        <v>4805.084632178476</v>
       </c>
       <c r="S29" t="n">
-        <v>4674.30521388874</v>
+        <v>4669.738539107372</v>
       </c>
       <c r="T29" t="n">
-        <v>4474.243715986936</v>
+        <v>4458.947621061376</v>
       </c>
       <c r="U29" t="n">
-        <v>4231.354697409667</v>
+        <v>4216.058602484107</v>
       </c>
       <c r="V29" t="n">
-        <v>3900.291810066096</v>
+        <v>3884.995715140536</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.523154795982</v>
+        <v>3532.227059870422</v>
       </c>
       <c r="X29" t="n">
-        <v>3174.057396534902</v>
+        <v>3169.490721753535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.91806455909</v>
+        <v>2779.351389777723</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.135943693475</v>
       </c>
       <c r="I30" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J30" t="n">
-        <v>260.1339215058517</v>
+        <v>135.303796518847</v>
       </c>
       <c r="K30" t="n">
-        <v>667.1119704153157</v>
+        <v>542.281845428311</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.075844509333</v>
+        <v>971.0043462553231</v>
       </c>
       <c r="M30" t="n">
-        <v>1525.257266171081</v>
+        <v>1733.233781029571</v>
       </c>
       <c r="N30" t="n">
-        <v>1848.818708786673</v>
+        <v>2056.795223645163</v>
       </c>
       <c r="O30" t="n">
-        <v>2122.594420722468</v>
+        <v>2330.570935580959</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.990499800787</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q30" t="n">
         <v>2615.007290096655</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.5065010045678</v>
+        <v>372.6725853499125</v>
       </c>
       <c r="C31" t="n">
-        <v>666.2997382208539</v>
+        <v>372.6725853499125</v>
       </c>
       <c r="D31" t="n">
-        <v>526.9125189527111</v>
+        <v>233.2853660817698</v>
       </c>
       <c r="E31" t="n">
-        <v>389.7288455145111</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="F31" t="n">
-        <v>253.5683181607937</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="G31" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="H31" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="I31" t="n">
-        <v>96.10169264356949</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J31" t="n">
-        <v>117.5642615082086</v>
+        <v>117.5642615082087</v>
       </c>
       <c r="K31" t="n">
         <v>275.905734837384</v>
       </c>
       <c r="L31" t="n">
-        <v>531.1139074283849</v>
+        <v>531.1139074283848</v>
       </c>
       <c r="M31" t="n">
         <v>810.0126233272938</v>
@@ -6649,22 +6649,22 @@
         <v>1372.240200922447</v>
       </c>
       <c r="T31" t="n">
-        <v>1372.240200922447</v>
+        <v>1159.095657936311</v>
       </c>
       <c r="U31" t="n">
-        <v>1372.240200922447</v>
+        <v>1043.950943164768</v>
       </c>
       <c r="V31" t="n">
-        <v>1372.240200922447</v>
+        <v>799.995875103074</v>
       </c>
       <c r="W31" t="n">
-        <v>1372.240200922447</v>
+        <v>799.995875103074</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.488704689951</v>
+        <v>582.7357443492497</v>
       </c>
       <c r="Y31" t="n">
-        <v>995.4255456906144</v>
+        <v>372.6725853499125</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2371.292709425215</v>
+        <v>2371.292709425216</v>
       </c>
       <c r="C32" t="n">
-        <v>2002.330192484804</v>
+        <v>2002.330192484805</v>
       </c>
       <c r="D32" t="n">
-        <v>1644.064493878053</v>
+        <v>1644.064493878054</v>
       </c>
       <c r="E32" t="n">
-        <v>1258.276241279809</v>
+        <v>1258.27624127981</v>
       </c>
       <c r="F32" t="n">
-        <v>847.2903364902015</v>
+        <v>847.2903364902024</v>
       </c>
       <c r="G32" t="n">
-        <v>431.1183613939715</v>
+        <v>489.3321368963034</v>
       </c>
       <c r="H32" t="n">
-        <v>122.274251198403</v>
+        <v>180.4880267007348</v>
       </c>
       <c r="I32" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J32" t="n">
-        <v>360.9227516616374</v>
+        <v>360.9227516616384</v>
       </c>
       <c r="K32" t="n">
-        <v>878.5656755996752</v>
+        <v>878.5656755996763</v>
       </c>
       <c r="L32" t="n">
-        <v>1573.024123405467</v>
+        <v>1573.024123405468</v>
       </c>
       <c r="M32" t="n">
-        <v>2362.34949988</v>
+        <v>2362.349499880001</v>
       </c>
       <c r="N32" t="n">
-        <v>3149.814988614352</v>
+        <v>3149.814988614353</v>
       </c>
       <c r="O32" t="n">
         <v>3848.208681903261</v>
       </c>
       <c r="P32" t="n">
-        <v>4406.597158308657</v>
+        <v>4406.597158308658</v>
       </c>
       <c r="Q32" t="n">
-        <v>4748.701889668311</v>
+        <v>4748.701889668312</v>
       </c>
       <c r="R32" t="n">
-        <v>4805.084632178476</v>
+        <v>4805.084632178477</v>
       </c>
       <c r="S32" t="n">
-        <v>4669.738539107372</v>
+        <v>4669.738539107373</v>
       </c>
       <c r="T32" t="n">
-        <v>4458.947621061376</v>
+        <v>4458.947621061377</v>
       </c>
       <c r="U32" t="n">
-        <v>4205.329182339914</v>
+        <v>4205.329182339915</v>
       </c>
       <c r="V32" t="n">
-        <v>3874.266294996343</v>
+        <v>3874.266294996344</v>
       </c>
       <c r="W32" t="n">
-        <v>3521.497639726229</v>
+        <v>3521.49763972623</v>
       </c>
       <c r="X32" t="n">
-        <v>3148.031881465149</v>
+        <v>3148.03188146515</v>
       </c>
       <c r="Y32" t="n">
-        <v>2757.892549489337</v>
+        <v>2757.892549489338</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.135943693475</v>
       </c>
       <c r="I33" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J33" t="n">
-        <v>260.1339215058517</v>
+        <v>135.303796518847</v>
       </c>
       <c r="K33" t="n">
-        <v>667.1119704153158</v>
+        <v>542.281845428311</v>
       </c>
       <c r="L33" t="n">
-        <v>908.7977035557949</v>
+        <v>1150.9184526846</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.979125217543</v>
+        <v>1452.099874346348</v>
       </c>
       <c r="N33" t="n">
-        <v>1533.540567833135</v>
+        <v>1775.66131696194</v>
       </c>
       <c r="O33" t="n">
-        <v>1807.316279768931</v>
+        <v>2049.437028897736</v>
       </c>
       <c r="P33" t="n">
         <v>2322.990499800787</v>
@@ -6841,31 +6841,31 @@
         <v>473.0736863059301</v>
       </c>
       <c r="E34" t="n">
-        <v>394.9180276392227</v>
+        <v>394.9180276392226</v>
       </c>
       <c r="F34" t="n">
-        <v>317.7855150569982</v>
+        <v>317.7855150569978</v>
       </c>
       <c r="G34" t="n">
-        <v>219.3469043112665</v>
+        <v>219.346904311266</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5020757417079</v>
+        <v>138.5020757417074</v>
       </c>
       <c r="I34" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J34" t="n">
-        <v>175.4176187857487</v>
+        <v>175.4176187857485</v>
       </c>
       <c r="K34" t="n">
-        <v>391.612449392464</v>
+        <v>391.6124493924638</v>
       </c>
       <c r="L34" t="n">
-        <v>704.6739792610047</v>
+        <v>704.6739792610045</v>
       </c>
       <c r="M34" t="n">
-        <v>1041.426052437454</v>
+        <v>1041.426052437453</v>
       </c>
       <c r="N34" t="n">
         <v>1377.231198650127</v>
@@ -6898,7 +6898,7 @@
         <v>1073.769928939532</v>
       </c>
       <c r="X34" t="n">
-        <v>915.5378129572</v>
+        <v>915.5378129572001</v>
       </c>
       <c r="Y34" t="n">
         <v>764.5026687293556</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2429.506484927547</v>
+        <v>2371.292709425216</v>
       </c>
       <c r="C35" t="n">
-        <v>2060.543967987136</v>
+        <v>2002.330192484805</v>
       </c>
       <c r="D35" t="n">
-        <v>1702.278269380385</v>
+        <v>1644.064493878054</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.490016782141</v>
+        <v>1258.27624127981</v>
       </c>
       <c r="F35" t="n">
-        <v>905.5041119925334</v>
+        <v>847.2903364902024</v>
       </c>
       <c r="G35" t="n">
         <v>489.3321368963034</v>
@@ -6932,55 +6932,55 @@
         <v>180.4880267007348</v>
       </c>
       <c r="I35" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J35" t="n">
-        <v>360.922751661637</v>
+        <v>360.9227516616371</v>
       </c>
       <c r="K35" t="n">
-        <v>878.5656755996746</v>
+        <v>878.5656755996747</v>
       </c>
       <c r="L35" t="n">
-        <v>1573.024123405467</v>
+        <v>1573.024123405468</v>
       </c>
       <c r="M35" t="n">
-        <v>2362.349499879999</v>
+        <v>2362.349499880001</v>
       </c>
       <c r="N35" t="n">
-        <v>3149.814988614351</v>
+        <v>3149.814988614353</v>
       </c>
       <c r="O35" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P35" t="n">
-        <v>4406.597158308656</v>
+        <v>4406.597158308658</v>
       </c>
       <c r="Q35" t="n">
-        <v>4748.70188966831</v>
+        <v>4748.701889668312</v>
       </c>
       <c r="R35" t="n">
-        <v>4805.084632178476</v>
+        <v>4805.084632178477</v>
       </c>
       <c r="S35" t="n">
-        <v>4669.738539107372</v>
+        <v>4669.738539107373</v>
       </c>
       <c r="T35" t="n">
-        <v>4517.161396563707</v>
+        <v>4458.947621061377</v>
       </c>
       <c r="U35" t="n">
-        <v>4263.542957842245</v>
+        <v>4205.329182339915</v>
       </c>
       <c r="V35" t="n">
-        <v>3932.480070498675</v>
+        <v>3874.266294996344</v>
       </c>
       <c r="W35" t="n">
-        <v>3579.711415228561</v>
+        <v>3521.49763972623</v>
       </c>
       <c r="X35" t="n">
-        <v>3206.245656967481</v>
+        <v>3148.03188146515</v>
       </c>
       <c r="Y35" t="n">
-        <v>2816.106324991669</v>
+        <v>2757.892549489338</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.135943693475</v>
       </c>
       <c r="I36" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J36" t="n">
         <v>260.1339215058517</v>
       </c>
       <c r="K36" t="n">
-        <v>667.1119704153158</v>
+        <v>405.291385772863</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.075844509333</v>
+        <v>646.7960511787273</v>
       </c>
       <c r="M36" t="n">
-        <v>1525.257266171081</v>
+        <v>947.9774728404757</v>
       </c>
       <c r="N36" t="n">
-        <v>1848.818708786673</v>
+        <v>1271.538915456068</v>
       </c>
       <c r="O36" t="n">
-        <v>2122.594420722468</v>
+        <v>1935.238323475825</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.990499800787</v>
+        <v>2450.912543507682</v>
       </c>
       <c r="Q36" t="n">
-        <v>2615.007290096655</v>
+        <v>2624.133068133588</v>
       </c>
       <c r="R36" t="n">
         <v>2624.133068133588</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>652.6116388148014</v>
+        <v>652.6116388148015</v>
       </c>
       <c r="C37" t="n">
-        <v>553.4328908025801</v>
+        <v>553.4328908025802</v>
       </c>
       <c r="D37" t="n">
         <v>473.0736863059301</v>
       </c>
       <c r="E37" t="n">
-        <v>394.9180276392227</v>
+        <v>394.9180276392226</v>
       </c>
       <c r="F37" t="n">
-        <v>317.785515056998</v>
+        <v>317.7855150569978</v>
       </c>
       <c r="G37" t="n">
-        <v>219.3469043112664</v>
+        <v>219.3469043112661</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5020757417078</v>
+        <v>138.5020757417079</v>
       </c>
       <c r="I37" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J37" t="n">
-        <v>175.4176187857487</v>
+        <v>175.4176187857486</v>
       </c>
       <c r="K37" t="n">
-        <v>391.612449392464</v>
+        <v>391.6124493924639</v>
       </c>
       <c r="L37" t="n">
-        <v>704.6739792610048</v>
+        <v>704.6739792610047</v>
       </c>
       <c r="M37" t="n">
-        <v>1041.426052437454</v>
+        <v>1041.426052437453</v>
       </c>
       <c r="N37" t="n">
-        <v>1377.231198650128</v>
+        <v>1377.231198650127</v>
       </c>
       <c r="O37" t="n">
-        <v>1676.604489955237</v>
+        <v>1676.604489955236</v>
       </c>
       <c r="P37" t="n">
-        <v>1919.116923970461</v>
+        <v>1919.11692397046</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.618811556049</v>
+        <v>2024.618811556048</v>
       </c>
       <c r="R37" t="n">
         <v>1982.369317477173</v>
       </c>
       <c r="S37" t="n">
-        <v>1851.845579835384</v>
+        <v>1851.845579835383</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.729051620741</v>
+        <v>1697.72905162074</v>
       </c>
       <c r="U37" t="n">
         <v>1478.356717351008</v>
@@ -7138,7 +7138,7 @@
         <v>915.5378129572</v>
       </c>
       <c r="Y37" t="n">
-        <v>764.5026687293554</v>
+        <v>764.5026687293556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2371.292709425215</v>
+        <v>2371.292709425216</v>
       </c>
       <c r="C38" t="n">
-        <v>2002.330192484804</v>
+        <v>2002.330192484805</v>
       </c>
       <c r="D38" t="n">
-        <v>1644.064493878053</v>
+        <v>1644.064493878054</v>
       </c>
       <c r="E38" t="n">
-        <v>1258.276241279809</v>
+        <v>1258.27624127981</v>
       </c>
       <c r="F38" t="n">
-        <v>847.2903364902015</v>
+        <v>847.2903364902024</v>
       </c>
       <c r="G38" t="n">
-        <v>431.1183613939715</v>
+        <v>489.3321368963034</v>
       </c>
       <c r="H38" t="n">
-        <v>122.274251198403</v>
+        <v>180.4880267007348</v>
       </c>
       <c r="I38" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J38" t="n">
-        <v>360.9227516616374</v>
+        <v>360.9227516616371</v>
       </c>
       <c r="K38" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996758</v>
       </c>
       <c r="L38" t="n">
-        <v>1573.024123405467</v>
+        <v>1573.024123405468</v>
       </c>
       <c r="M38" t="n">
-        <v>2362.349499879999</v>
+        <v>2362.349499880001</v>
       </c>
       <c r="N38" t="n">
-        <v>3149.814988614351</v>
+        <v>3149.814988614353</v>
       </c>
       <c r="O38" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P38" t="n">
-        <v>4406.597158308657</v>
+        <v>4406.597158308658</v>
       </c>
       <c r="Q38" t="n">
-        <v>4748.701889668311</v>
+        <v>4748.701889668312</v>
       </c>
       <c r="R38" t="n">
-        <v>4805.084632178476</v>
+        <v>4805.084632178477</v>
       </c>
       <c r="S38" t="n">
-        <v>4669.738539107372</v>
+        <v>4669.738539107373</v>
       </c>
       <c r="T38" t="n">
-        <v>4458.947621061376</v>
+        <v>4458.947621061377</v>
       </c>
       <c r="U38" t="n">
-        <v>4205.329182339914</v>
+        <v>4205.329182339915</v>
       </c>
       <c r="V38" t="n">
-        <v>3874.266294996343</v>
+        <v>3874.266294996344</v>
       </c>
       <c r="W38" t="n">
-        <v>3521.497639726229</v>
+        <v>3521.49763972623</v>
       </c>
       <c r="X38" t="n">
-        <v>3148.031881465149</v>
+        <v>3148.03188146515</v>
       </c>
       <c r="Y38" t="n">
-        <v>2757.892549489337</v>
+        <v>2757.892549489338</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.135943693475</v>
       </c>
       <c r="I39" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J39" t="n">
-        <v>260.1339215058517</v>
+        <v>135.303796518847</v>
       </c>
       <c r="K39" t="n">
-        <v>667.1119704153158</v>
+        <v>542.281845428311</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.075844509333</v>
+        <v>1150.9184526846</v>
       </c>
       <c r="M39" t="n">
-        <v>1525.257266171081</v>
+        <v>1452.099874346348</v>
       </c>
       <c r="N39" t="n">
-        <v>1848.818708786673</v>
+        <v>1775.66131696194</v>
       </c>
       <c r="O39" t="n">
-        <v>2122.594420722468</v>
+        <v>2131.720198759401</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.990499800787</v>
+        <v>2332.116277837719</v>
       </c>
       <c r="Q39" t="n">
-        <v>2615.007290096655</v>
+        <v>2624.133068133588</v>
       </c>
       <c r="R39" t="n">
         <v>2624.133068133588</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>652.6116388148018</v>
+        <v>652.6116388148016</v>
       </c>
       <c r="C40" t="n">
-        <v>553.4328908025806</v>
+        <v>553.4328908025803</v>
       </c>
       <c r="D40" t="n">
-        <v>473.0736863059304</v>
+        <v>473.0736863059302</v>
       </c>
       <c r="E40" t="n">
-        <v>394.9180276392229</v>
+        <v>394.9180276392227</v>
       </c>
       <c r="F40" t="n">
-        <v>317.7855150569981</v>
+        <v>317.785515056998</v>
       </c>
       <c r="G40" t="n">
-        <v>219.3469043112665</v>
+        <v>219.3469043112664</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5020757417078</v>
+        <v>138.5020757417079</v>
       </c>
       <c r="I40" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J40" t="n">
-        <v>175.4176187857487</v>
+        <v>175.4176187857485</v>
       </c>
       <c r="K40" t="n">
-        <v>391.612449392464</v>
+        <v>391.6124493924638</v>
       </c>
       <c r="L40" t="n">
-        <v>704.6739792610047</v>
+        <v>704.6739792610045</v>
       </c>
       <c r="M40" t="n">
         <v>1041.426052437454</v>
@@ -7345,13 +7345,13 @@
         <v>1377.231198650127</v>
       </c>
       <c r="O40" t="n">
-        <v>1676.604489955237</v>
+        <v>1676.604489955236</v>
       </c>
       <c r="P40" t="n">
-        <v>1919.116923970461</v>
+        <v>1919.11692397046</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.618811556049</v>
+        <v>2024.618811556048</v>
       </c>
       <c r="R40" t="n">
         <v>1982.369317477173</v>
@@ -7372,10 +7372,10 @@
         <v>1073.769928939532</v>
       </c>
       <c r="X40" t="n">
-        <v>915.5378129572003</v>
+        <v>915.5378129572002</v>
       </c>
       <c r="Y40" t="n">
-        <v>764.5026687293559</v>
+        <v>764.5026687293557</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.506484927547</v>
+        <v>2371.292709425216</v>
       </c>
       <c r="C41" t="n">
-        <v>2060.543967987136</v>
+        <v>2002.330192484805</v>
       </c>
       <c r="D41" t="n">
-        <v>1702.278269380385</v>
+        <v>1644.064493878054</v>
       </c>
       <c r="E41" t="n">
-        <v>1316.490016782141</v>
+        <v>1258.27624127981</v>
       </c>
       <c r="F41" t="n">
-        <v>905.5041119925334</v>
+        <v>847.2903364902024</v>
       </c>
       <c r="G41" t="n">
         <v>489.3321368963034</v>
@@ -7406,55 +7406,55 @@
         <v>180.4880267007348</v>
       </c>
       <c r="I41" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J41" t="n">
-        <v>360.9227516616371</v>
+        <v>360.922751661637</v>
       </c>
       <c r="K41" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996746</v>
       </c>
       <c r="L41" t="n">
-        <v>1573.024123405467</v>
+        <v>1573.024123405468</v>
       </c>
       <c r="M41" t="n">
-        <v>2362.34949988</v>
+        <v>2362.349499880001</v>
       </c>
       <c r="N41" t="n">
-        <v>3149.814988614352</v>
+        <v>3149.814988614353</v>
       </c>
       <c r="O41" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P41" t="n">
-        <v>4406.597158308657</v>
+        <v>4406.597158308658</v>
       </c>
       <c r="Q41" t="n">
-        <v>4748.701889668311</v>
+        <v>4748.701889668312</v>
       </c>
       <c r="R41" t="n">
-        <v>4805.084632178476</v>
+        <v>4805.084632178477</v>
       </c>
       <c r="S41" t="n">
-        <v>4669.738539107372</v>
+        <v>4669.738539107373</v>
       </c>
       <c r="T41" t="n">
-        <v>4458.947621061376</v>
+        <v>4458.947621061377</v>
       </c>
       <c r="U41" t="n">
-        <v>4205.329182339914</v>
+        <v>4205.329182339915</v>
       </c>
       <c r="V41" t="n">
-        <v>3874.266294996343</v>
+        <v>3874.266294996344</v>
       </c>
       <c r="W41" t="n">
-        <v>3521.497639726229</v>
+        <v>3521.49763972623</v>
       </c>
       <c r="X41" t="n">
-        <v>3148.031881465149</v>
+        <v>3148.03188146515</v>
       </c>
       <c r="Y41" t="n">
-        <v>2757.892549489337</v>
+        <v>2757.892549489338</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8055112412565</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2709532681414</v>
+        <v>358.2709532681415</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3195553928193</v>
+        <v>221.3195553928194</v>
       </c>
       <c r="H42" t="n">
-        <v>125.135943693475</v>
+        <v>125.1359436934751</v>
       </c>
       <c r="I42" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J42" t="n">
-        <v>135.303796518847</v>
+        <v>260.1339215058517</v>
       </c>
       <c r="K42" t="n">
-        <v>517.2633891949285</v>
+        <v>405.2913857728628</v>
       </c>
       <c r="L42" t="n">
-        <v>1125.899996451217</v>
+        <v>646.7960511787271</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.081418112966</v>
+        <v>1409.025485952975</v>
       </c>
       <c r="N42" t="n">
-        <v>1750.642860728558</v>
+        <v>1732.586928568567</v>
       </c>
       <c r="O42" t="n">
-        <v>2024.418572664353</v>
+        <v>2015.292794627421</v>
       </c>
       <c r="P42" t="n">
-        <v>2540.09279269621</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2624.133068133588</v>
+        <v>2615.007290096655</v>
       </c>
       <c r="R42" t="n">
         <v>2624.133068133588</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>652.6116388148018</v>
+        <v>652.611638814801</v>
       </c>
       <c r="C43" t="n">
-        <v>553.4328908025806</v>
+        <v>553.4328908025798</v>
       </c>
       <c r="D43" t="n">
-        <v>473.0736863059305</v>
+        <v>473.0736863059297</v>
       </c>
       <c r="E43" t="n">
-        <v>394.918027639223</v>
+        <v>394.9180276392223</v>
       </c>
       <c r="F43" t="n">
-        <v>317.7855150569982</v>
+        <v>317.7855150569976</v>
       </c>
       <c r="G43" t="n">
-        <v>219.3469043112666</v>
+        <v>219.346904311266</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5020757417079</v>
+        <v>138.5020757417074</v>
       </c>
       <c r="I43" t="n">
-        <v>96.10169264356952</v>
+        <v>96.10169264356954</v>
       </c>
       <c r="J43" t="n">
         <v>175.4176187857487</v>
@@ -7573,7 +7573,7 @@
         <v>391.612449392464</v>
       </c>
       <c r="L43" t="n">
-        <v>704.6739792610048</v>
+        <v>704.6739792610047</v>
       </c>
       <c r="M43" t="n">
         <v>1041.426052437454</v>
@@ -7588,31 +7588,31 @@
         <v>1919.11692397046</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.618811556048</v>
+        <v>2024.618811556047</v>
       </c>
       <c r="R43" t="n">
-        <v>1982.369317477173</v>
+        <v>1982.369317477172</v>
       </c>
       <c r="S43" t="n">
-        <v>1851.845579835384</v>
+        <v>1851.845579835383</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.729051620741</v>
+        <v>1697.72905162074</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.356717351008</v>
+        <v>1478.356717351007</v>
       </c>
       <c r="V43" t="n">
-        <v>1293.429664060807</v>
+        <v>1293.429664060806</v>
       </c>
       <c r="W43" t="n">
-        <v>1073.769928939532</v>
+        <v>1073.769928939531</v>
       </c>
       <c r="X43" t="n">
-        <v>915.5378129572005</v>
+        <v>915.5378129571995</v>
       </c>
       <c r="Y43" t="n">
-        <v>764.5026687293559</v>
+        <v>764.502668729355</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.506484927547</v>
+        <v>2371.292709425215</v>
       </c>
       <c r="C44" t="n">
-        <v>2060.543967987136</v>
+        <v>2002.330192484804</v>
       </c>
       <c r="D44" t="n">
-        <v>1702.278269380385</v>
+        <v>1644.064493878053</v>
       </c>
       <c r="E44" t="n">
-        <v>1316.490016782141</v>
+        <v>1258.276241279809</v>
       </c>
       <c r="F44" t="n">
-        <v>905.5041119925334</v>
+        <v>847.2903364902015</v>
       </c>
       <c r="G44" t="n">
         <v>489.3321368963034</v>
@@ -7646,10 +7646,10 @@
         <v>96.10169264356952</v>
       </c>
       <c r="J44" t="n">
-        <v>360.9227516616371</v>
+        <v>360.922751661637</v>
       </c>
       <c r="K44" t="n">
-        <v>878.5656755996747</v>
+        <v>878.5656755996749</v>
       </c>
       <c r="L44" t="n">
         <v>1573.024123405467</v>
@@ -7661,10 +7661,10 @@
         <v>3149.814988614352</v>
       </c>
       <c r="O44" t="n">
-        <v>3848.20868190326</v>
+        <v>3848.208681903261</v>
       </c>
       <c r="P44" t="n">
-        <v>4406.597158308657</v>
+        <v>4406.597158308658</v>
       </c>
       <c r="Q44" t="n">
         <v>4748.701889668311</v>
@@ -7679,19 +7679,19 @@
         <v>4458.947621061376</v>
       </c>
       <c r="U44" t="n">
-        <v>4263.542957842245</v>
+        <v>4205.329182339914</v>
       </c>
       <c r="V44" t="n">
-        <v>3932.480070498675</v>
+        <v>3874.266294996343</v>
       </c>
       <c r="W44" t="n">
-        <v>3579.711415228561</v>
+        <v>3521.497639726229</v>
       </c>
       <c r="X44" t="n">
-        <v>3206.245656967481</v>
+        <v>3148.031881465149</v>
       </c>
       <c r="Y44" t="n">
-        <v>2816.106324991669</v>
+        <v>2757.892549489337</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>135.303796518847</v>
       </c>
       <c r="K45" t="n">
-        <v>280.4612607858581</v>
+        <v>485.3458569244584</v>
       </c>
       <c r="L45" t="n">
-        <v>521.9659261917225</v>
+        <v>726.8505223303227</v>
       </c>
       <c r="M45" t="n">
-        <v>1284.195360965971</v>
+        <v>1028.031943992071</v>
       </c>
       <c r="N45" t="n">
-        <v>2065.921001682096</v>
+        <v>1351.593386607663</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.696713617891</v>
+        <v>2015.292794627421</v>
       </c>
       <c r="P45" t="n">
-        <v>2540.09279269621</v>
+        <v>2530.967014659278</v>
       </c>
       <c r="Q45" t="n">
-        <v>2624.133068133588</v>
+        <v>2615.007290096655</v>
       </c>
       <c r="R45" t="n">
         <v>2624.133068133588</v>
@@ -7801,22 +7801,22 @@
         <v>138.5020757417079</v>
       </c>
       <c r="I46" t="n">
-        <v>96.10169264356951</v>
+        <v>96.10169264356952</v>
       </c>
       <c r="J46" t="n">
         <v>175.4176187857487</v>
       </c>
       <c r="K46" t="n">
-        <v>391.6124493924639</v>
+        <v>391.612449392464</v>
       </c>
       <c r="L46" t="n">
-        <v>704.6739792610047</v>
+        <v>704.6739792610048</v>
       </c>
       <c r="M46" t="n">
         <v>1041.426052437454</v>
       </c>
       <c r="N46" t="n">
-        <v>1377.231198650127</v>
+        <v>1377.231198650128</v>
       </c>
       <c r="O46" t="n">
         <v>1676.604489955236</v>
@@ -7840,13 +7840,13 @@
         <v>1478.356717351008</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.429664060806</v>
+        <v>1293.429664060807</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.769928939531</v>
+        <v>1073.769928939532</v>
       </c>
       <c r="X46" t="n">
-        <v>915.5378129571998</v>
+        <v>915.5378129571999</v>
       </c>
       <c r="Y46" t="n">
         <v>764.5026687293555</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>234.752356000374</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>257.9728648419856</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>239.6115747153265</v>
       </c>
       <c r="M6" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>142.9145225887215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>462.792119293468</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>270.1696267541596</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>462.792119293468</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>134.8606338006878</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.30371219825768</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659906</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>83.11431299158109</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>103.8850761465998</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.30371219825768</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.95177399000886</v>
+        <v>9.400854314694186</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>36.30371219825768</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>327.8636229546313</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>239.0775209640649</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>36.30371219825768</v>
+        <v>36.30371219825767</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>318.6456653415682</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>313.845815746442</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>318.6456653415684</v>
+        <v>189.1089246678259</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1828967016311367</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>73.89635537851723</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504517</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298341</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>318.6456653415682</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.08105978639156</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>36.30371219825767</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711658</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>318.6456653415682</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>83.11431299158068</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.30371219825767</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504519</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>239.194069100071</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>9.020357700059094</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.30371219825767</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298247</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>206.9541375137376</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>462.7921192934676</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.30371219825767</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.9898709987834</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>163.404711915474</v>
+        <v>163.4047119154739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>144.7733638350584</v>
       </c>
       <c r="E13" t="n">
-        <v>142.5918534634153</v>
+        <v>142.5918534634152</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>141.5789388397773</v>
       </c>
       <c r="G13" t="n">
-        <v>162.6719760216492</v>
+        <v>162.6719760216491</v>
       </c>
       <c r="H13" t="n">
-        <v>64.89973158587935</v>
+        <v>145.2541316672379</v>
       </c>
       <c r="I13" t="n">
-        <v>107.1941306505319</v>
+        <v>107.1941306505318</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>107.0447505214613</v>
       </c>
       <c r="S13" t="n">
-        <v>194.4362516487463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.5869660972171</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.8675462058833</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.7425441689409</v>
+        <v>214.7425441689408</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.3913959129839</v>
+        <v>175.9898709987833</v>
       </c>
       <c r="C16" t="n">
-        <v>163.404711915474</v>
+        <v>163.4047119154738</v>
       </c>
       <c r="D16" t="n">
-        <v>144.7733638350585</v>
+        <v>144.7733638350583</v>
       </c>
       <c r="E16" t="n">
-        <v>142.5918534634153</v>
+        <v>142.5918534634152</v>
       </c>
       <c r="F16" t="n">
-        <v>141.5789388397774</v>
+        <v>141.5789388397772</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>162.6719760216491</v>
       </c>
       <c r="H16" t="n">
-        <v>145.254131667238</v>
+        <v>145.2541316672378</v>
       </c>
       <c r="I16" t="n">
-        <v>107.1941306505319</v>
+        <v>107.1941306505318</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.0447505214613</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.7931143158714</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>153.5912754729637</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.8675462058833</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.7425441689409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.7733638350585</v>
       </c>
       <c r="E19" t="n">
         <v>142.5918534634153</v>
@@ -23902,13 +23902,13 @@
         <v>141.5789388397774</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>162.6719760216492</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.254131667238</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>107.1941306505319</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.07042330843294</v>
+        <v>107.0447505214613</v>
       </c>
       <c r="S19" t="n">
-        <v>194.4362516487463</v>
+        <v>99.18578682231292</v>
       </c>
       <c r="T19" t="n">
-        <v>217.7931143158715</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.3963623104103</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.2955341406741</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>282.6808891534371</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.8675462058833</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>165.3677450560323</v>
       </c>
       <c r="C22" t="n">
         <v>152.7825859727228</v>
       </c>
       <c r="D22" t="n">
-        <v>134.1512378923074</v>
+        <v>130.1016666740915</v>
       </c>
       <c r="E22" t="n">
         <v>131.9697275206642</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>130.9568128970262</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>152.0498500788981</v>
       </c>
       <c r="H22" t="n">
         <v>134.6320057244868</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.57200470778075</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.87718489073063</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>207.1709883731204</v>
       </c>
       <c r="U22" t="n">
-        <v>271.7742363676592</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>211.2454202631322</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.3677450560323</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>152.7825859727228</v>
       </c>
       <c r="D25" t="n">
-        <v>134.1512378923074</v>
+        <v>26.46121866636832</v>
       </c>
       <c r="E25" t="n">
         <v>131.9697275206642</v>
       </c>
       <c r="F25" t="n">
-        <v>130.9568128970263</v>
+        <v>130.9568128970262</v>
       </c>
       <c r="G25" t="n">
         <v>152.0498500788981</v>
@@ -24382,7 +24382,7 @@
         <v>134.6320057244868</v>
       </c>
       <c r="I25" t="n">
-        <v>96.57200470778076</v>
+        <v>96.57200470778074</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>96.4226245787102</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.058763210686</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.6987925761949</v>
+        <v>204.1204182261898</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.6246951558768</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.9933470754613</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>85.42631828625687</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.7989220801802</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.891959262052</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4741149076407</v>
+        <v>138.4741149076408</v>
       </c>
       <c r="I28" t="n">
-        <v>100.4141138909346</v>
+        <v>100.4141138909347</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>100.2647337618641</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>187.656234889149</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.0130975562743</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6163455508131</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>232.3299917570652</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>215.087529446286</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.9625274093436</v>
+        <v>207.9625274093437</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.2098542391863</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.6246951558768</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.7989220801802</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.8919592620521</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4741149076407</v>
+        <v>138.4741149076408</v>
       </c>
       <c r="I31" t="n">
         <v>100.4141138909347</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>100.2647337618641</v>
+        <v>100.2647337618642</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.0130975562743</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6163455508131</v>
+        <v>161.623077926986</v>
       </c>
       <c r="V31" t="n">
-        <v>241.5155173810769</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>275.9008723938399</v>
+        <v>275.90087239384</v>
       </c>
       <c r="X31" t="n">
-        <v>50.00354817611574</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839180.5186096221</v>
+        <v>839180.518609622</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845410.2221219502</v>
+        <v>845410.2221219504</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>845410.2221219502</v>
+        <v>845410.2221219504</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843156.8877892524</v>
+        <v>843156.8877892522</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>843156.8877892523</v>
+        <v>843156.8877892522</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
         <v>568201.0085626604</v>
       </c>
       <c r="F2" t="n">
-        <v>568201.0085626603</v>
+        <v>568201.0085626602</v>
       </c>
       <c r="G2" t="n">
-        <v>568201.0085626603</v>
+        <v>568201.0085626601</v>
       </c>
       <c r="H2" t="n">
-        <v>572607.3842177212</v>
+        <v>572607.3842177209</v>
       </c>
       <c r="I2" t="n">
-        <v>572607.3842177208</v>
+        <v>572607.3842177207</v>
       </c>
       <c r="J2" t="n">
-        <v>571013.5623726416</v>
+        <v>571013.5623726413</v>
       </c>
       <c r="K2" t="n">
-        <v>571013.5623726414</v>
+        <v>571013.5623726418</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516044</v>
       </c>
       <c r="M2" t="n">
+        <v>595255.2831516044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="O2" t="n">
         <v>595255.2831516042</v>
       </c>
-      <c r="N2" t="n">
-        <v>595255.2831516045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="P2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>15106.6875843894</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>514930.1143992531</v>
+        <v>514930.1143992532</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8497.700754200914</v>
+        <v>8497.700754200918</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475222</v>
+        <v>3323.773824475267</v>
       </c>
       <c r="L3" t="n">
-        <v>147513.4996383026</v>
+        <v>147513.4996383025</v>
       </c>
       <c r="M3" t="n">
         <v>139824.1929040259</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310115.955054333</v>
+        <v>313369.8837676479</v>
       </c>
       <c r="C4" t="n">
-        <v>305796.3521632177</v>
+        <v>309054.9237657045</v>
       </c>
       <c r="D4" t="n">
-        <v>180458.9452515257</v>
+        <v>183898.1584507213</v>
       </c>
       <c r="E4" t="n">
-        <v>38185.19251324229</v>
+        <v>40969.9703878623</v>
       </c>
       <c r="F4" t="n">
-        <v>38185.19251324233</v>
+        <v>40969.97038786235</v>
       </c>
       <c r="G4" t="n">
-        <v>38185.19251324237</v>
+        <v>40969.97038786224</v>
       </c>
       <c r="H4" t="n">
-        <v>41680.40130765461</v>
+        <v>44465.17918227449</v>
       </c>
       <c r="I4" t="n">
-        <v>41680.40130765457</v>
+        <v>44465.17918227449</v>
       </c>
       <c r="J4" t="n">
-        <v>40416.15591285998</v>
+        <v>43200.93378747987</v>
       </c>
       <c r="K4" t="n">
-        <v>40416.15591286001</v>
+        <v>43200.93378747984</v>
       </c>
       <c r="L4" t="n">
-        <v>59645.08287940041</v>
+        <v>62429.86075402028</v>
       </c>
       <c r="M4" t="n">
-        <v>59645.08287940042</v>
+        <v>62429.86075402029</v>
       </c>
       <c r="N4" t="n">
-        <v>59645.0828794004</v>
+        <v>62429.86075402029</v>
       </c>
       <c r="O4" t="n">
-        <v>59645.08287940039</v>
+        <v>62429.86075402031</v>
       </c>
       <c r="P4" t="n">
-        <v>59645.08287940038</v>
+        <v>62429.86075402032</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91214.59637267973</v>
+        <v>91214.59637267975</v>
       </c>
       <c r="F5" t="n">
         <v>91214.59637267973</v>
       </c>
       <c r="G5" t="n">
-        <v>91214.59637267972</v>
+        <v>91214.59637267973</v>
       </c>
       <c r="H5" t="n">
-        <v>92107.58787856087</v>
+        <v>92107.58787856088</v>
       </c>
       <c r="I5" t="n">
         <v>92107.58787856088</v>
@@ -26494,19 +26494,19 @@
         <v>91784.58560164232</v>
       </c>
       <c r="K5" t="n">
-        <v>91784.58560164229</v>
+        <v>91784.58560164231</v>
       </c>
       <c r="L5" t="n">
-        <v>96697.38751372868</v>
+        <v>96697.3875137287</v>
       </c>
       <c r="M5" t="n">
-        <v>96697.38751372868</v>
+        <v>96697.3875137287</v>
       </c>
       <c r="N5" t="n">
-        <v>96697.38751372868</v>
+        <v>96697.3875137287</v>
       </c>
       <c r="O5" t="n">
-        <v>96697.38751372868</v>
+        <v>96697.3875137287</v>
       </c>
       <c r="P5" t="n">
         <v>96697.38751372868</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124610.4658154892</v>
+        <v>121356.5371021747</v>
       </c>
       <c r="C6" t="n">
-        <v>223170.8638872181</v>
+        <v>219912.2922847316</v>
       </c>
       <c r="D6" t="n">
-        <v>-85246.36231701818</v>
+        <v>-88685.5755162141</v>
       </c>
       <c r="E6" t="n">
-        <v>-76128.8947225147</v>
+        <v>-79006.96319916562</v>
       </c>
       <c r="F6" t="n">
-        <v>438801.2196767382</v>
+        <v>435923.1512000872</v>
       </c>
       <c r="G6" t="n">
-        <v>438801.2196767383</v>
+        <v>435923.1512000874</v>
       </c>
       <c r="H6" t="n">
-        <v>430321.6942773047</v>
+        <v>427458.8201994643</v>
       </c>
       <c r="I6" t="n">
-        <v>438819.3950315054</v>
+        <v>435956.520953665</v>
       </c>
       <c r="J6" t="n">
-        <v>369937.1221268895</v>
+        <v>367068.7521116521</v>
       </c>
       <c r="K6" t="n">
-        <v>435489.0470336638</v>
+        <v>432620.6770184272</v>
       </c>
       <c r="L6" t="n">
-        <v>291399.3131201728</v>
+        <v>288614.5352455528</v>
       </c>
       <c r="M6" t="n">
-        <v>299088.6198544492</v>
+        <v>296303.8419798295</v>
       </c>
       <c r="N6" t="n">
-        <v>438912.8127584754</v>
+        <v>436128.0348838556</v>
       </c>
       <c r="O6" t="n">
-        <v>438912.8127584757</v>
+        <v>436128.0348838553</v>
       </c>
       <c r="P6" t="n">
-        <v>438912.8127584757</v>
+        <v>436128.0348838556</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="F2" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="G2" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="H2" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="I2" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="J2" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="K2" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="L2" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="M2" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="N2" t="n">
         <v>69.05986056652877</v>
       </c>
       <c r="O2" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="P2" t="n">
         <v>69.05986056652877</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>819.0049397545112</v>
@@ -26756,25 +26756,25 @@
         <v>819.0049397545112</v>
       </c>
       <c r="I3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="J3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="K3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="L3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="M3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="N3" t="n">
-        <v>819.0049397545112</v>
+        <v>819.0049397545113</v>
       </c>
       <c r="O3" t="n">
-        <v>819.0049397545113</v>
+        <v>819.004939754511</v>
       </c>
       <c r="P3" t="n">
         <v>819.0049397545113</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.62212594275114</v>
+        <v>10.62212594275115</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58.43773462377769</v>
+        <v>58.43773462377762</v>
       </c>
       <c r="M2" t="n">
-        <v>10.62212594275117</v>
+        <v>10.62212594275115</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
         <v>441.2612755374245</v>
@@ -27039,7 +27039,7 @@
         <v>12.91447975068877</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="M4" t="n">
         <v>526.9838852900633</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.62212594275114</v>
+        <v>10.62212594275115</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.8970074429013</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>283.2069078342046</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>2.182164058985563</v>
       </c>
       <c r="S3" t="n">
-        <v>138.5402840343392</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27594,7 +27594,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>174.9895966828424</v>
+        <v>92.30257421685317</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>79.8054106882924</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>359.0253352040979</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>37.02076944308249</v>
+        <v>61.25707814873832</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>210.7002805028447</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>32.61508187866929</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8129518787938</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="C11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="D11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="E11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="F11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="G11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="H11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="I11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="T11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="U11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="V11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="W11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="X11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="C13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="D13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="E13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="F13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="G13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="H13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="I13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="J13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="K13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="L13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="M13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="N13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="O13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="P13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="R13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="S13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="T13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="U13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="V13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="W13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="X13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183153944</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="C14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="D14" t="n">
-        <v>3.842109183154719</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="E14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="F14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="G14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="H14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="I14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="T14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="U14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="V14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="W14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="X14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="C16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="D16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="E16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="F16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="G16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="H16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="I16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="J16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="K16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="L16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="M16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="N16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="O16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="P16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="R16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="S16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="T16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="U16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="V16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="W16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="X16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.842109183153862</v>
+        <v>3.842109183154003</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="C17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="D17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="E17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="F17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="G17" t="n">
-        <v>3.842109183155685</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="H17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="I17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="T17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="U17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="V17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="W17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="X17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="C19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="D19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="E19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="F19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="G19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="H19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="I19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="J19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="K19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="L19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="M19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="N19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="O19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="P19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="R19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="S19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="T19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="U19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="V19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="W19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="X19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.842109183153862</v>
+        <v>3.84210918315387</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.23893236959469</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,19 +28807,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14.23893236959339</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,10 +28849,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.464235125905</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14.464235125905</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="C22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="D22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="E22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="F22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="G22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="H22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="I22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="J22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="K22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="L22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="M22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="N22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="O22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="P22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="R22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="S22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="T22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="U22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="V22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="W22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="X22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
     </row>
     <row r="23">
@@ -29044,16 +29044,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>14.23893236959339</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="G23" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,13 +29089,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>14.464235125905</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>14.464235125905</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>14.23893236959378</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="C25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="D25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="E25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="F25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="G25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="H25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="I25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="J25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="K25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="L25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="M25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="N25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="O25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="P25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="R25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="S25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="T25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="U25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="V25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="W25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="X25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.464235125905</v>
+        <v>14.46423512590502</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.62212594275115</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.521008033553414</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10.62212594275115</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="I26" t="n">
-        <v>10.62212594275115</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.62212594275115</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.521008033553329</v>
       </c>
       <c r="U26" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="C28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="D28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="E28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="F28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="G28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="H28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="I28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="J28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="K28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="L28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="M28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="N28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="O28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="P28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="R28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="S28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="T28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="U28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="V28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="W28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="X28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.62212594275115</v>
+        <v>10.62212594275107</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="E29" t="n">
-        <v>10.62212594275109</v>
+        <v>4.521008033553358</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10.62212594275109</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,13 +29560,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.521008033554637</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.62212594275109</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="C31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="D31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="E31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="F31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="G31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="H31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="I31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="J31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="K31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="L31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="M31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="N31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="O31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="P31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="R31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="S31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="T31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="U31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="V31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="W31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="X31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.62212594275109</v>
+        <v>10.62212594275101</v>
       </c>
     </row>
     <row r="32">
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>57.63163774730765</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>57.63163774730855</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="C34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="D34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="E34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="F34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="G34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="H34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="I34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="J34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="K34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="L34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="M34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="N34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="O34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="P34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="R34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="S34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="T34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="U34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="V34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="W34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="X34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.05986056652878</v>
+        <v>69.05986056652877</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>57.63163774730765</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>57.63163774730845</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="C37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="D37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="E37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="F37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="G37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="H37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="I37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="J37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="K37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="L37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="M37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="N37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="O37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="P37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="R37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="S37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="T37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="U37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="V37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="W37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="X37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.05986056652881</v>
+        <v>69.05986056652877</v>
       </c>
     </row>
     <row r="38">
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>57.63163774730765</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>57.63163774730855</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.63163774730839</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>57.63163774730765</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="C43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="D43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="E43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="F43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="G43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="H43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="I43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="J43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="K43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="L43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="M43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="N43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="O43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="P43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="R43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="S43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="T43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="U43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="V43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="W43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="X43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.05986056652876</v>
+        <v>69.05986056652881</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>57.63163774730856</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>57.63163774730813</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32701,22 +32701,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H23" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I23" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J23" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K23" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L23" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M23" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N23" t="n">
         <v>587.4858247748616</v>
@@ -32725,7 +32725,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P23" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q23" t="n">
         <v>355.5510339212662</v>
@@ -32783,7 +32783,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I24" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J24" t="n">
         <v>166.4357113891691</v>
@@ -32795,10 +32795,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M24" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N24" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O24" t="n">
         <v>419.1373676119148</v>
@@ -32816,7 +32816,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T24" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U24" t="n">
         <v>0.1158969254369592</v>
@@ -32859,16 +32859,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H25" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I25" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J25" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K25" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L25" t="n">
         <v>219.5738817171357</v>
@@ -32880,7 +32880,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O25" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P25" t="n">
         <v>178.62363472941</v>
@@ -32895,10 +32895,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T25" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,22 +32938,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H26" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I26" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J26" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K26" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L26" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M26" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N26" t="n">
         <v>587.4858247748616</v>
@@ -32962,7 +32962,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P26" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q26" t="n">
         <v>355.5510339212662</v>
@@ -33020,7 +33020,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I27" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J27" t="n">
         <v>166.4357113891691</v>
@@ -33032,10 +33032,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M27" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N27" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O27" t="n">
         <v>419.1373676119148</v>
@@ -33053,7 +33053,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T27" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U27" t="n">
         <v>0.1158969254369592</v>
@@ -33096,16 +33096,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H28" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I28" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J28" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K28" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L28" t="n">
         <v>219.5738817171357</v>
@@ -33117,7 +33117,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O28" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P28" t="n">
         <v>178.62363472941</v>
@@ -33132,10 +33132,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T28" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,22 +33175,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H29" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I29" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J29" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K29" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L29" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M29" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N29" t="n">
         <v>587.4858247748616</v>
@@ -33199,7 +33199,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P29" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q29" t="n">
         <v>355.5510339212662</v>
@@ -33257,7 +33257,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I30" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J30" t="n">
         <v>166.4357113891691</v>
@@ -33269,10 +33269,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M30" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N30" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O30" t="n">
         <v>419.1373676119148</v>
@@ -33290,7 +33290,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T30" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U30" t="n">
         <v>0.1158969254369592</v>
@@ -33333,16 +33333,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H31" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I31" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J31" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K31" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L31" t="n">
         <v>219.5738817171357</v>
@@ -33354,7 +33354,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O31" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P31" t="n">
         <v>178.62363472941</v>
@@ -33369,10 +33369,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T31" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,22 +33412,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H32" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I32" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J32" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K32" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L32" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M32" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N32" t="n">
         <v>587.4858247748616</v>
@@ -33436,7 +33436,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P32" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q32" t="n">
         <v>355.5510339212662</v>
@@ -33494,7 +33494,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I33" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J33" t="n">
         <v>166.4357113891691</v>
@@ -33506,10 +33506,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M33" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N33" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O33" t="n">
         <v>419.1373676119148</v>
@@ -33527,7 +33527,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T33" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U33" t="n">
         <v>0.1158969254369592</v>
@@ -33570,16 +33570,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H34" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I34" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J34" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K34" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L34" t="n">
         <v>219.5738817171357</v>
@@ -33591,7 +33591,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O34" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P34" t="n">
         <v>178.62363472941</v>
@@ -33606,10 +33606,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T34" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,22 +33649,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H35" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I35" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J35" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K35" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L35" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M35" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N35" t="n">
         <v>587.4858247748616</v>
@@ -33673,7 +33673,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P35" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q35" t="n">
         <v>355.5510339212662</v>
@@ -33731,7 +33731,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I36" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J36" t="n">
         <v>166.4357113891691</v>
@@ -33743,10 +33743,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M36" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N36" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O36" t="n">
         <v>419.1373676119148</v>
@@ -33764,7 +33764,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T36" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U36" t="n">
         <v>0.1158969254369592</v>
@@ -33807,16 +33807,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H37" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I37" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J37" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K37" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L37" t="n">
         <v>219.5738817171357</v>
@@ -33828,7 +33828,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O37" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P37" t="n">
         <v>178.62363472941</v>
@@ -33843,10 +33843,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T37" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,22 +33886,22 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H38" t="n">
-        <v>33.7191330221543</v>
+        <v>33.71913302215431</v>
       </c>
       <c r="I38" t="n">
         <v>126.9334188538123</v>
       </c>
       <c r="J38" t="n">
-        <v>279.4453085647817</v>
+        <v>279.4453085647818</v>
       </c>
       <c r="K38" t="n">
-        <v>418.8160788152679</v>
+        <v>418.816078815268</v>
       </c>
       <c r="L38" t="n">
         <v>519.5783800213469</v>
       </c>
       <c r="M38" t="n">
-        <v>578.1310598097258</v>
+        <v>578.1310598097259</v>
       </c>
       <c r="N38" t="n">
         <v>587.4858247748616</v>
@@ -33910,7 +33910,7 @@
         <v>554.7462051982428</v>
       </c>
       <c r="P38" t="n">
-        <v>473.4630516296418</v>
+        <v>473.4630516296419</v>
       </c>
       <c r="Q38" t="n">
         <v>355.5510339212662</v>
@@ -33968,7 +33968,7 @@
         <v>17.0136686541456</v>
       </c>
       <c r="I39" t="n">
-        <v>60.65272431200862</v>
+        <v>60.65272431200863</v>
       </c>
       <c r="J39" t="n">
         <v>166.4357113891691</v>
@@ -33980,10 +33980,10 @@
         <v>382.4984862504442</v>
       </c>
       <c r="M39" t="n">
-        <v>446.3576921662085</v>
+        <v>446.3576921662086</v>
       </c>
       <c r="N39" t="n">
-        <v>458.1714520990826</v>
+        <v>458.1714520990827</v>
       </c>
       <c r="O39" t="n">
         <v>419.1373676119148</v>
@@ -34001,7 +34001,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T39" t="n">
-        <v>7.100618298437693</v>
+        <v>7.100618298437694</v>
       </c>
       <c r="U39" t="n">
         <v>0.1158969254369592</v>
@@ -34044,16 +34044,16 @@
         <v>1.476894153655676</v>
       </c>
       <c r="H40" t="n">
-        <v>13.13093165704774</v>
+        <v>13.13093165704775</v>
       </c>
       <c r="I40" t="n">
-        <v>44.41423509357251</v>
+        <v>44.41423509357252</v>
       </c>
       <c r="J40" t="n">
         <v>104.4164166634563</v>
       </c>
       <c r="K40" t="n">
-        <v>171.5882480338139</v>
+        <v>171.588248033814</v>
       </c>
       <c r="L40" t="n">
         <v>219.5738817171357</v>
@@ -34065,7 +34065,7 @@
         <v>226.0050844407819</v>
       </c>
       <c r="O40" t="n">
-        <v>208.7522754639859</v>
+        <v>208.752275463986</v>
       </c>
       <c r="P40" t="n">
         <v>178.62363472941</v>
@@ -34080,10 +34080,10 @@
         <v>25.73823720507209</v>
       </c>
       <c r="T40" t="n">
-        <v>6.310365929256068</v>
+        <v>6.310365929256069</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08055786292667332</v>
+        <v>0.08055786292667333</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>3.292482169867379</v>
       </c>
       <c r="H41" t="n">
-        <v>33.71913302215431</v>
+        <v>33.7191330221543</v>
       </c>
       <c r="I41" t="n">
-        <v>126.9334188538123</v>
+        <v>126.9334188538122</v>
       </c>
       <c r="J41" t="n">
-        <v>279.4453085647818</v>
+        <v>279.4453085647817</v>
       </c>
       <c r="K41" t="n">
-        <v>418.816078815268</v>
+        <v>418.8160788152679</v>
       </c>
       <c r="L41" t="n">
-        <v>519.5783800213469</v>
+        <v>519.5783800213468</v>
       </c>
       <c r="M41" t="n">
-        <v>578.1310598097259</v>
+        <v>578.1310598097258</v>
       </c>
       <c r="N41" t="n">
-        <v>587.4858247748616</v>
+        <v>587.4858247748615</v>
       </c>
       <c r="O41" t="n">
-        <v>554.7462051982428</v>
+        <v>554.7462051982427</v>
       </c>
       <c r="P41" t="n">
-        <v>473.4630516296419</v>
+        <v>473.4630516296417</v>
       </c>
       <c r="Q41" t="n">
-        <v>355.5510339212662</v>
+        <v>355.5510339212661</v>
       </c>
       <c r="R41" t="n">
         <v>206.8213831029319</v>
       </c>
       <c r="S41" t="n">
-        <v>75.02743744585298</v>
+        <v>75.02743744585297</v>
       </c>
       <c r="T41" t="n">
         <v>14.41284069859446</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2633985735893903</v>
+        <v>0.2633985735893902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.761633266641779</v>
+        <v>1.761633266641778</v>
       </c>
       <c r="H42" t="n">
         <v>17.0136686541456</v>
       </c>
       <c r="I42" t="n">
-        <v>60.65272431200863</v>
+        <v>60.65272431200861</v>
       </c>
       <c r="J42" t="n">
         <v>166.4357113891691</v>
@@ -34214,19 +34214,19 @@
         <v>284.4651402541683</v>
       </c>
       <c r="L42" t="n">
-        <v>382.4984862504442</v>
+        <v>382.4984862504441</v>
       </c>
       <c r="M42" t="n">
-        <v>446.3576921662086</v>
+        <v>446.3576921662084</v>
       </c>
       <c r="N42" t="n">
-        <v>458.1714520990827</v>
+        <v>458.1714520990826</v>
       </c>
       <c r="O42" t="n">
-        <v>419.1373676119148</v>
+        <v>419.1373676119147</v>
       </c>
       <c r="P42" t="n">
-        <v>336.3946893116218</v>
+        <v>336.3946893116217</v>
       </c>
       <c r="Q42" t="n">
         <v>224.8709411944839</v>
@@ -34238,7 +34238,7 @@
         <v>32.72156528170144</v>
       </c>
       <c r="T42" t="n">
-        <v>7.100618298437694</v>
+        <v>7.100618298437692</v>
       </c>
       <c r="U42" t="n">
         <v>0.1158969254369592</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.476894153655676</v>
+        <v>1.476894153655675</v>
       </c>
       <c r="H43" t="n">
-        <v>13.13093165704775</v>
+        <v>13.13093165704774</v>
       </c>
       <c r="I43" t="n">
-        <v>44.41423509357252</v>
+        <v>44.41423509357251</v>
       </c>
       <c r="J43" t="n">
-        <v>104.4164166634563</v>
+        <v>104.4164166634562</v>
       </c>
       <c r="K43" t="n">
-        <v>171.588248033814</v>
+        <v>171.5882480338139</v>
       </c>
       <c r="L43" t="n">
-        <v>219.5738817171357</v>
+        <v>219.5738817171356</v>
       </c>
       <c r="M43" t="n">
         <v>231.509871740771</v>
       </c>
       <c r="N43" t="n">
-        <v>226.0050844407819</v>
+        <v>226.0050844407818</v>
       </c>
       <c r="O43" t="n">
-        <v>208.752275463986</v>
+        <v>208.7522754639859</v>
       </c>
       <c r="P43" t="n">
         <v>178.62363472941</v>
@@ -34311,16 +34311,16 @@
         <v>123.6697459029312</v>
       </c>
       <c r="R43" t="n">
-        <v>66.40653167255428</v>
+        <v>66.40653167255427</v>
       </c>
       <c r="S43" t="n">
-        <v>25.73823720507209</v>
+        <v>25.73823720507208</v>
       </c>
       <c r="T43" t="n">
-        <v>6.310365929256069</v>
+        <v>6.310365929256067</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08055786292667333</v>
+        <v>0.0805578629266733</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>106.945877257382</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>127.1540446485814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>193.9407825031299</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>117.41311485904</v>
       </c>
       <c r="M6" t="n">
         <v>276.1565137023555</v>
@@ -35027,13 +35027,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3246024308939</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>39.59808472250245</v>
       </c>
       <c r="K12" t="n">
-        <v>146.6237012798093</v>
+        <v>411.0889382923879</v>
       </c>
       <c r="L12" t="n">
         <v>243.94410647057</v>
       </c>
       <c r="M12" t="n">
-        <v>769.92872199419</v>
+        <v>304.2236582441902</v>
       </c>
       <c r="N12" t="n">
-        <v>789.6218593092173</v>
+        <v>326.8297400157493</v>
       </c>
       <c r="O12" t="n">
-        <v>276.5411231674703</v>
+        <v>670.4034424441999</v>
       </c>
       <c r="P12" t="n">
-        <v>202.4202818972915</v>
+        <v>472.5899086514511</v>
       </c>
       <c r="Q12" t="n">
         <v>84.8891671084624</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.89934572993735</v>
+        <v>14.89934572993742</v>
       </c>
       <c r="K13" t="n">
-        <v>153.1608653910849</v>
+        <v>153.160865391085</v>
       </c>
       <c r="L13" t="n">
-        <v>251.0060161606057</v>
+        <v>251.0060161606058</v>
       </c>
       <c r="M13" t="n">
         <v>274.9358578857655</v>
       </c>
       <c r="N13" t="n">
-        <v>273.9793660031643</v>
+        <v>273.9793660031644</v>
       </c>
       <c r="O13" t="n">
-        <v>237.1795125611795</v>
+        <v>237.1795125611796</v>
       </c>
       <c r="P13" t="n">
-        <v>179.7443031774574</v>
+        <v>179.7443031774575</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.34981183439066</v>
+        <v>41.34981183439074</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.59808472250245</v>
+        <v>165.6891200629113</v>
       </c>
       <c r="K15" t="n">
-        <v>146.6237012798093</v>
+        <v>411.0889382923879</v>
       </c>
       <c r="L15" t="n">
         <v>243.94410647057</v>
       </c>
       <c r="M15" t="n">
-        <v>769.92872199419</v>
+        <v>304.2236582441902</v>
       </c>
       <c r="N15" t="n">
-        <v>789.6218593092173</v>
+        <v>326.8297400157493</v>
       </c>
       <c r="O15" t="n">
-        <v>276.5411231674703</v>
+        <v>670.4034424441999</v>
       </c>
       <c r="P15" t="n">
-        <v>202.4202818972915</v>
+        <v>337.2809156979794</v>
       </c>
       <c r="Q15" t="n">
         <v>84.8891671084624</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.217957613063135</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.89934572993735</v>
+        <v>14.89934572993749</v>
       </c>
       <c r="K16" t="n">
-        <v>153.1608653910849</v>
+        <v>153.1608653910851</v>
       </c>
       <c r="L16" t="n">
-        <v>251.0060161606057</v>
+        <v>251.0060161606058</v>
       </c>
       <c r="M16" t="n">
-        <v>274.9358578857655</v>
+        <v>274.9358578857656</v>
       </c>
       <c r="N16" t="n">
-        <v>273.9793660031643</v>
+        <v>273.9793660031644</v>
       </c>
       <c r="O16" t="n">
-        <v>237.1795125611795</v>
+        <v>237.1795125611796</v>
       </c>
       <c r="P16" t="n">
-        <v>179.7443031774574</v>
+        <v>179.7443031774575</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.34981183439066</v>
+        <v>41.3498118343908</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>564.0287640458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>345.5603347067214</v>
+        <v>345.5603347067227</v>
       </c>
       <c r="R17" t="n">
         <v>56.95226516178224</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>122.7123977140835</v>
+        <v>165.6891200629113</v>
       </c>
       <c r="K18" t="n">
-        <v>411.0889382923879</v>
+        <v>146.6237012798093</v>
       </c>
       <c r="L18" t="n">
         <v>614.7844517740291</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2236582441902</v>
+        <v>408.1087343907899</v>
       </c>
       <c r="N18" t="n">
         <v>326.8297400157493</v>
@@ -35978,13 +35978,13 @@
         <v>276.5411231674703</v>
       </c>
       <c r="P18" t="n">
-        <v>202.4202818972915</v>
+        <v>520.8830505372287</v>
       </c>
       <c r="Q18" t="n">
-        <v>294.9664548443115</v>
+        <v>84.8891671084624</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.217957613063135</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>179.7443031774574</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.34981183439066</v>
+        <v>41.34981183439067</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.59808472250245</v>
+        <v>165.6891200629113</v>
       </c>
       <c r="K21" t="n">
-        <v>146.6237012798093</v>
+        <v>411.0889382923879</v>
       </c>
       <c r="L21" t="n">
-        <v>614.7844517740291</v>
+        <v>243.94410647057</v>
       </c>
       <c r="M21" t="n">
-        <v>769.92872199419</v>
+        <v>304.2236582441902</v>
       </c>
       <c r="N21" t="n">
         <v>326.8297400157493</v>
       </c>
       <c r="O21" t="n">
-        <v>368.4928971574792</v>
+        <v>285.9419774821645</v>
       </c>
       <c r="P21" t="n">
-        <v>202.4202818972915</v>
+        <v>520.8830505372287</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.8891671084624</v>
+        <v>294.9664548443115</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.52147167268849</v>
+        <v>25.52147167268851</v>
       </c>
       <c r="K22" t="n">
         <v>163.7829913338361</v>
@@ -36297,7 +36297,7 @@
         <v>190.3664291202085</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.9719377771418</v>
+        <v>51.97193777714182</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K23" t="n">
         <v>522.8716403414521</v>
@@ -36364,7 +36364,7 @@
         <v>701.4731796018101</v>
       </c>
       <c r="M23" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N23" t="n">
         <v>795.4196855902549</v>
@@ -36373,13 +36373,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P23" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q23" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R23" t="n">
-        <v>56.95226516178224</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>165.6891200629113</v>
+        <v>39.59808472250245</v>
       </c>
       <c r="K24" t="n">
-        <v>411.0889382923879</v>
+        <v>146.6237012798093</v>
       </c>
       <c r="L24" t="n">
-        <v>571.8077294252013</v>
+        <v>243.94410647057</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2236582441902</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N24" t="n">
-        <v>326.8297400157493</v>
+        <v>806.1721143593029</v>
       </c>
       <c r="O24" t="n">
-        <v>276.5411231674703</v>
+        <v>276.5411231674704</v>
       </c>
       <c r="P24" t="n">
-        <v>202.4202818972915</v>
+        <v>441.4978028613565</v>
       </c>
       <c r="Q24" t="n">
-        <v>294.9664548443115</v>
+        <v>294.9664548443116</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.52147167268849</v>
+        <v>25.52147167268852</v>
       </c>
       <c r="K25" t="n">
         <v>163.7829913338361</v>
       </c>
       <c r="L25" t="n">
-        <v>261.6281421033568</v>
+        <v>261.6281421033569</v>
       </c>
       <c r="M25" t="n">
         <v>285.5579838285166</v>
@@ -36528,13 +36528,13 @@
         <v>284.6014919459155</v>
       </c>
       <c r="O25" t="n">
-        <v>247.8016385039306</v>
+        <v>247.8016385039307</v>
       </c>
       <c r="P25" t="n">
-        <v>190.3664291202085</v>
+        <v>190.3664291202086</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.9719377771418</v>
+        <v>51.97193777714183</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K26" t="n">
         <v>522.8716403414521</v>
@@ -36601,7 +36601,7 @@
         <v>701.4731796018101</v>
       </c>
       <c r="M26" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N26" t="n">
         <v>795.4196855902549</v>
@@ -36610,13 +36610,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P26" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q26" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R26" t="n">
-        <v>56.95226516178224</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>165.6891200629113</v>
       </c>
       <c r="K27" t="n">
-        <v>411.0889382923879</v>
+        <v>146.6237012798093</v>
       </c>
       <c r="L27" t="n">
-        <v>562.5897718121382</v>
+        <v>243.94410647057</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2236582441902</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N27" t="n">
-        <v>326.8297400157493</v>
+        <v>806.1721143593029</v>
       </c>
       <c r="O27" t="n">
-        <v>276.5411231674703</v>
+        <v>590.3869389139124</v>
       </c>
       <c r="P27" t="n">
-        <v>202.4202818972915</v>
+        <v>202.4202818972916</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.9664548443115</v>
+        <v>84.88916710846243</v>
       </c>
       <c r="R27" t="n">
-        <v>9.217957613063135</v>
+        <v>9.217957613063149</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.67936248953464</v>
+        <v>21.67936248953457</v>
       </c>
       <c r="K28" t="n">
         <v>159.9408821506822</v>
@@ -36759,19 +36759,19 @@
         <v>257.786032920203</v>
       </c>
       <c r="M28" t="n">
-        <v>281.7158746453628</v>
+        <v>281.7158746453627</v>
       </c>
       <c r="N28" t="n">
         <v>280.7593827627616</v>
       </c>
       <c r="O28" t="n">
-        <v>243.9595293207768</v>
+        <v>243.9595293207767</v>
       </c>
       <c r="P28" t="n">
-        <v>186.5243199370547</v>
+        <v>186.5243199370546</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.12982859398794</v>
+        <v>48.12982859398788</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K29" t="n">
         <v>522.8716403414521</v>
@@ -36838,7 +36838,7 @@
         <v>701.4731796018101</v>
       </c>
       <c r="M29" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N29" t="n">
         <v>795.4196855902549</v>
@@ -36847,13 +36847,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P29" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q29" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R29" t="n">
-        <v>56.95226516178224</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6891200629113</v>
+        <v>39.59808472250245</v>
       </c>
       <c r="K30" t="n">
         <v>411.0889382923879</v>
       </c>
       <c r="L30" t="n">
-        <v>562.5897718121383</v>
+        <v>433.053031138396</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2236582441902</v>
+        <v>769.9287219941903</v>
       </c>
       <c r="N30" t="n">
-        <v>326.8297400157493</v>
+        <v>326.8297400157494</v>
       </c>
       <c r="O30" t="n">
-        <v>276.5411231674703</v>
+        <v>276.5411231674704</v>
       </c>
       <c r="P30" t="n">
-        <v>202.4202818972915</v>
+        <v>202.4202818972916</v>
       </c>
       <c r="Q30" t="n">
-        <v>294.9664548443115</v>
+        <v>84.88916710846243</v>
       </c>
       <c r="R30" t="n">
-        <v>9.217957613063135</v>
+        <v>9.217957613063149</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.67936248953458</v>
+        <v>21.67936248953451</v>
       </c>
       <c r="K31" t="n">
-        <v>159.9408821506822</v>
+        <v>159.9408821506821</v>
       </c>
       <c r="L31" t="n">
-        <v>257.7860329202029</v>
+        <v>257.7860329202028</v>
       </c>
       <c r="M31" t="n">
-        <v>281.7158746453627</v>
+        <v>281.7158746453626</v>
       </c>
       <c r="N31" t="n">
-        <v>280.7593827627616</v>
+        <v>280.7593827627615</v>
       </c>
       <c r="O31" t="n">
         <v>243.9595293207767</v>
       </c>
       <c r="P31" t="n">
-        <v>186.5243199370546</v>
+        <v>186.5243199370545</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.12982859398789</v>
+        <v>48.12982859398782</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K32" t="n">
         <v>522.8716403414521</v>
@@ -37075,7 +37075,7 @@
         <v>701.4731796018101</v>
       </c>
       <c r="M32" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N32" t="n">
         <v>795.4196855902549</v>
@@ -37084,13 +37084,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P32" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q32" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R32" t="n">
-        <v>56.95226516178224</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>165.6891200629113</v>
+        <v>39.59808472250245</v>
       </c>
       <c r="K33" t="n">
         <v>411.0889382923879</v>
       </c>
       <c r="L33" t="n">
-        <v>244.1270031722011</v>
+        <v>614.7844517740292</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2236582441902</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N33" t="n">
-        <v>326.8297400157493</v>
+        <v>326.8297400157494</v>
       </c>
       <c r="O33" t="n">
-        <v>276.5411231674703</v>
+        <v>276.5411231674704</v>
       </c>
       <c r="P33" t="n">
-        <v>520.8830505372287</v>
+        <v>276.3166372758088</v>
       </c>
       <c r="Q33" t="n">
-        <v>294.9664548443115</v>
+        <v>294.9664548443116</v>
       </c>
       <c r="R33" t="n">
-        <v>9.217957613063135</v>
+        <v>9.217957613063149</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K35" t="n">
         <v>522.8716403414521</v>
       </c>
       <c r="L35" t="n">
-        <v>701.4731796018101</v>
+        <v>701.4731796018114</v>
       </c>
       <c r="M35" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N35" t="n">
         <v>795.4196855902549</v>
@@ -37321,13 +37321,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P35" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q35" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R35" t="n">
-        <v>56.9522651617832</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>165.6891200629113</v>
       </c>
       <c r="K36" t="n">
-        <v>411.0889382923879</v>
+        <v>146.6237012798093</v>
       </c>
       <c r="L36" t="n">
-        <v>562.5897718121382</v>
+        <v>243.94410647057</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2236582441902</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N36" t="n">
-        <v>326.8297400157493</v>
+        <v>326.8297400157494</v>
       </c>
       <c r="O36" t="n">
-        <v>276.5411231674703</v>
+        <v>670.4034424442</v>
       </c>
       <c r="P36" t="n">
-        <v>202.4202818972915</v>
+        <v>520.8830505372288</v>
       </c>
       <c r="Q36" t="n">
-        <v>294.9664548443115</v>
+        <v>174.970226894854</v>
       </c>
       <c r="R36" t="n">
-        <v>9.217957613063135</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.1170971133123</v>
+        <v>80.11709711331227</v>
       </c>
       <c r="K37" t="n">
         <v>218.3786167744599</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.4960192101692</v>
+        <v>267.4960192101693</v>
       </c>
       <c r="K38" t="n">
-        <v>522.8716403414521</v>
+        <v>522.8716403414533</v>
       </c>
       <c r="L38" t="n">
         <v>701.4731796018101</v>
       </c>
       <c r="M38" t="n">
-        <v>797.2983600752856</v>
+        <v>797.2983600752857</v>
       </c>
       <c r="N38" t="n">
         <v>795.4196855902549</v>
@@ -37558,13 +37558,13 @@
         <v>705.4481750393014</v>
       </c>
       <c r="P38" t="n">
-        <v>564.0287640458549</v>
+        <v>564.028764045855</v>
       </c>
       <c r="Q38" t="n">
         <v>345.5603347067214</v>
       </c>
       <c r="R38" t="n">
-        <v>56.95226516178224</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6891200629113</v>
+        <v>39.59808472250245</v>
       </c>
       <c r="K39" t="n">
         <v>411.0889382923879</v>
       </c>
       <c r="L39" t="n">
-        <v>562.5897718121382</v>
+        <v>614.7844517740292</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2236582441902</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N39" t="n">
-        <v>326.8297400157493</v>
+        <v>326.8297400157494</v>
       </c>
       <c r="O39" t="n">
-        <v>276.5411231674703</v>
+        <v>359.6554361590511</v>
       </c>
       <c r="P39" t="n">
-        <v>202.4202818972915</v>
+        <v>202.4202818972916</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.9664548443115</v>
+        <v>294.9664548443116</v>
       </c>
       <c r="R39" t="n">
-        <v>9.217957613063135</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.11709711331225</v>
+        <v>80.11709711331227</v>
       </c>
       <c r="K40" t="n">
-        <v>218.3786167744598</v>
+        <v>218.3786167744599</v>
       </c>
       <c r="L40" t="n">
         <v>316.2237675439806</v>
@@ -37710,7 +37710,7 @@
         <v>340.1536092691404</v>
       </c>
       <c r="N40" t="n">
-        <v>339.1971173865392</v>
+        <v>339.1971173865393</v>
       </c>
       <c r="O40" t="n">
         <v>302.3972639445544</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>267.4960192101693</v>
+        <v>267.4960192101692</v>
       </c>
       <c r="K41" t="n">
         <v>522.8716403414521</v>
       </c>
       <c r="L41" t="n">
-        <v>701.4731796018101</v>
+        <v>701.4731796018115</v>
       </c>
       <c r="M41" t="n">
-        <v>797.2983600752858</v>
+        <v>797.2983600752856</v>
       </c>
       <c r="N41" t="n">
-        <v>795.4196855902549</v>
+        <v>795.4196855902547</v>
       </c>
       <c r="O41" t="n">
-        <v>705.4481750393014</v>
+        <v>705.4481750393013</v>
       </c>
       <c r="P41" t="n">
-        <v>564.028764045855</v>
+        <v>564.0287640458548</v>
       </c>
       <c r="Q41" t="n">
-        <v>345.5603347067214</v>
+        <v>345.5603347067213</v>
       </c>
       <c r="R41" t="n">
-        <v>56.95226516178226</v>
+        <v>56.95226516178221</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.59808472250245</v>
+        <v>165.6891200629113</v>
       </c>
       <c r="K42" t="n">
-        <v>385.8177703798804</v>
+        <v>146.6237012798093</v>
       </c>
       <c r="L42" t="n">
-        <v>614.7844517740292</v>
+        <v>243.9441064705699</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2236582441903</v>
+        <v>769.92872199419</v>
       </c>
       <c r="N42" t="n">
-        <v>326.8297400157494</v>
+        <v>326.8297400157493</v>
       </c>
       <c r="O42" t="n">
-        <v>276.5411231674704</v>
+        <v>285.5614808675294</v>
       </c>
       <c r="P42" t="n">
-        <v>520.8830505372288</v>
+        <v>520.8830505372287</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.88916710846243</v>
+        <v>84.88916710846237</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.21795761306312</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.11709711331225</v>
+        <v>80.11709711331228</v>
       </c>
       <c r="K43" t="n">
         <v>218.3786167744599</v>
@@ -38038,7 +38038,7 @@
         <v>345.5603347067214</v>
       </c>
       <c r="R44" t="n">
-        <v>56.95226516178229</v>
+        <v>56.95226516178226</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>39.59808472250245</v>
       </c>
       <c r="K45" t="n">
-        <v>146.6237012798093</v>
+        <v>353.5778387935469</v>
       </c>
       <c r="L45" t="n">
         <v>243.94410647057</v>
       </c>
       <c r="M45" t="n">
-        <v>769.9287219941903</v>
+        <v>304.2236582441903</v>
       </c>
       <c r="N45" t="n">
-        <v>789.621859309217</v>
+        <v>326.8297400157494</v>
       </c>
       <c r="O45" t="n">
-        <v>276.5411231674704</v>
+        <v>670.4034424442</v>
       </c>
       <c r="P45" t="n">
-        <v>202.4202818972916</v>
+        <v>520.8830505372288</v>
       </c>
       <c r="Q45" t="n">
         <v>84.88916710846243</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.217957613063149</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
